--- a/Hardware/fab/bom/pcb-stm32wl.xlsx
+++ b/Hardware/fab/bom/pcb-stm32wl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="354">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve"> MPN</t>
   </si>
   <si>
-    <t xml:space="preserve"> ALT_MPN</t>
+    <t xml:space="preserve"> ALT_MPN/Note</t>
   </si>
   <si>
     <t xml:space="preserve"> Footprint</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10A475KO8NNNC_4-7uF-475-10-16V_C19666.html</t>
   </si>
   <si>
-    <t xml:space="preserve">C2 C34 </t>
+    <t xml:space="preserve">C34 </t>
   </si>
   <si>
     <t xml:space="preserve">10nF</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN2R4_C541334.html</t>
   </si>
   <si>
-    <t xml:space="preserve">C39 C54 </t>
+    <t xml:space="preserve">C39</t>
   </si>
   <si>
     <t xml:space="preserve">3.3pF</t>
@@ -280,18 +280,6 @@
     <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN3R9_C505474.html</t>
   </si>
   <si>
-    <t xml:space="preserve">C43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0402C100K5RAC7867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/z0nzzw</t>
-  </si>
-  <si>
     <t xml:space="preserve">C45 </t>
   </si>
   <si>
@@ -304,7 +292,7 @@
     <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN1R3_C327229.html</t>
   </si>
   <si>
-    <t xml:space="preserve">C47 C48 C50 </t>
+    <t xml:space="preserve">C43 C47 C48 C50 </t>
   </si>
   <si>
     <t xml:space="preserve">1nF</t>
@@ -316,7 +304,7 @@
     <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R7BB102_C189467.html</t>
   </si>
   <si>
-    <t xml:space="preserve">C55 </t>
+    <t xml:space="preserve">C2 C55 </t>
   </si>
   <si>
     <t xml:space="preserve">DNM</t>
@@ -370,6 +358,9 @@
     <t xml:space="preserve">PESD5V0S1BA,115</t>
   </si>
   <si>
+    <t xml:space="preserve">PESD5V0S1BA-N</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diode_SMD:D_SOD-323</t>
   </si>
   <si>
@@ -418,16 +409,16 @@
     <t xml:space="preserve">F1 </t>
   </si>
   <si>
-    <t xml:space="preserve">PTC 13V 1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD1210-050</t>
+    <t xml:space="preserve">16V 3A 110mΩ  PTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1210L150/16WR</t>
   </si>
   <si>
     <t xml:space="preserve">Fuse:Fuse_1210_3225Metric_Castellated</t>
   </si>
   <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/PTC-Resettable-Fuses_TECHFUSE-SMD1210-050_C70094.html</t>
+    <t xml:space="preserve">https://lcsc.com/product-detail/PTC-Resettable-Fuses_Littelfuse-1210L150-16WR_C207048.html</t>
   </si>
   <si>
     <t xml:space="preserve">FB1 </t>
@@ -493,6 +484,9 @@
     <t xml:space="preserve">RF_Shield_One_Piece</t>
   </si>
   <si>
+    <t xml:space="preserve">DMN – Custom</t>
+  </si>
+  <si>
     <t xml:space="preserve">S02-30200250</t>
   </si>
   <si>
@@ -523,13 +517,16 @@
     <t xml:space="preserve">DEBUG / UART/I2C</t>
   </si>
   <si>
-    <t xml:space="preserve">C124418</t>
+    <t xml:space="preserve">2.54mm PH3.5 7P header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THT</t>
   </si>
   <si>
     <t xml:space="preserve">Connector_PinSocket_2.54mm:PinSocket_1x07_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Pin-Header-Female-Header_Ckmtw-Shenzhen-Cankemeng-C124418_C124418.html</t>
+    <t xml:space="preserve">https://www.aliexpress.com/item/622209657.html?spm=a2g0o.cart.0.0.5c1d3c00KRaXyV&amp;mp=1</t>
   </si>
   <si>
     <t xml:space="preserve">JP5 </t>
@@ -604,25 +601,37 @@
     <t xml:space="preserve">L13 </t>
   </si>
   <si>
-    <t xml:space="preserve">23nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN23NG8ZD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/zvtwq8</t>
+    <t xml:space="preserve">27nH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQW15AN27NG00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/LQW15AN27NG00D/490-6792-1-ND/3845989?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=usd&amp;utm_source=octopart</t>
   </si>
   <si>
     <t xml:space="preserve">L14 </t>
   </si>
   <si>
-    <t xml:space="preserve">4.3nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN4N3G80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Inductors-SMD_Murata-Electronics-LQW15AN4N3G80D_C412333.html</t>
+    <t xml:space="preserve">6.5nH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQW15AN6N5G80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/murata-electronics/LQW15AN6N5G80D/4905966?s=N4IgTCBcDaIDIEUDqBGArAQQHIDYtoHEAOABhAF0BfIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8nH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQW15AN8N0G80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/murata-electronics/LQW15AN8N0G80D/4422141?s=N4IgTCBcDaIDIEUDqBGArAQQHIA4sAYBxHfEAXQF8g</t>
   </si>
   <si>
     <t xml:space="preserve">L3 </t>
@@ -715,28 +724,28 @@
     <t xml:space="preserve">Q1 </t>
   </si>
   <si>
-    <t xml:space="preserve">CEN2321A</t>
+    <t xml:space="preserve">PMV32UP,215</t>
   </si>
   <si>
     <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23</t>
   </si>
   <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/MOSFET_CET-Chino-Excel-Tech-CEN2321A_C180870.html</t>
+    <t xml:space="preserve">https://lcsc.com/product-detail/MOSFET_Nexperia-PMV32UP-215_C282569.html</t>
   </si>
   <si>
     <t xml:space="preserve">Q2 </t>
   </si>
   <si>
-    <t xml:space="preserve">S9013W</t>
+    <t xml:space="preserve">PMST4401,115</t>
   </si>
   <si>
     <t xml:space="preserve">Package_TO_SOT_SMD:SOT-323_SC-70</t>
   </si>
   <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Transistors-NPN-PNP_Changjiang-Electronics-Tech-CJ-S9013W_C37634.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1 R13 R20 </t>
+    <t xml:space="preserve">https://lcsc.com/product-detail/Transistors-NPN-PNP_Nexperia-PMST4401-115_C454963.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13 R20 </t>
   </si>
   <si>
     <t xml:space="preserve">10K</t>
@@ -838,7 +847,7 @@
     <t xml:space="preserve">https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0402FR-07100RL_C106232.html</t>
   </si>
   <si>
-    <t xml:space="preserve">R9 </t>
+    <t xml:space="preserve">R1 R9 </t>
   </si>
   <si>
     <t xml:space="preserve">0R</t>
@@ -910,10 +919,10 @@
     <t xml:space="preserve">U11 </t>
   </si>
   <si>
-    <t xml:space="preserve">ATECC608A-TNGLORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATECC608A-TNGLORAU-C</t>
+    <t xml:space="preserve">ATECC608B-TNGLORAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATECC608B-TNGLORAU-C</t>
   </si>
   <si>
     <t xml:space="preserve">Package_DFN_QFN:DFN-8-1EP_3x2mm_P0.5mm_EP1.3x1.5mm</t>
@@ -925,13 +934,10 @@
     <t xml:space="preserve">U2 </t>
   </si>
   <si>
-    <t xml:space="preserve">TPS3839G25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS3839G25DBZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ti.com/store/ti/en/p/product/?p=TPS3839G25DBZR&amp;HQS=OCB-tistore-null-storeinv-invf-store-octopart-wwe</t>
+    <t xml:space="preserve">TPS3839G18DBZT‎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.de/product-detail/en/TPS3839G18DBZT/296-39391-1-ND/5143342?itemSeq=363776395</t>
   </si>
   <si>
     <t xml:space="preserve">U4 </t>
@@ -967,6 +973,9 @@
     <t xml:space="preserve">TS3A5223RSWR</t>
   </si>
   <si>
+    <t xml:space="preserve">Backordered – not arrived yet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Package_DFN_QFN:UQFN-10_1.4x1.8mm_P0.4mm</t>
   </si>
   <si>
@@ -1024,13 +1033,13 @@
     <t xml:space="preserve">32MHz</t>
   </si>
   <si>
-    <t xml:space="preserve">TYETBCSANF-32.000000</t>
+    <t xml:space="preserve">‎TG2520SMN 32.0000M-MCGNNM3‎</t>
   </si>
   <si>
     <t xml:space="preserve">Crystal:Crystal_SMD_Abracon_ABM10-4Pin_2.5x2.0mm</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.com/short/z0b1h8</t>
+    <t xml:space="preserve">https://www.digikey.de/product-detail/en/TG2520SMN+32.0000M-MCGNNM3/114-TG2520SMN32.0000M-MCGNNM3TR-ND/13151954?itemSeq=363783209 </t>
   </si>
   <si>
     <t xml:space="preserve">Y1 </t>
@@ -1051,22 +1060,28 @@
     <t xml:space="preserve">Design version:</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1b</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date:</t>
   </si>
   <si>
-    <t xml:space="preserve">17/11/2020</t>
+    <t xml:space="preserve">24/05/2021</t>
   </si>
   <si>
     <t xml:space="preserve">Tool:</t>
   </si>
   <si>
-    <t xml:space="preserve">KiCAD v5.1.8</t>
+    <t xml:space="preserve">KiCAD v5.1.10</t>
   </si>
   <si>
     <t xml:space="preserve">Total Component Count:</t>
   </si>
   <si>
     <t xml:space="preserve">Unique Component Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1093,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1128,6 +1143,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1195,7 +1217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1288,12 +1310,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1336,19 +1362,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1429,20 +1455,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL106"/>
+  <dimension ref="A1:BL1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="39.09"/>
@@ -1451,7 +1477,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="10" style="4" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1656,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -1807,7 +1833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -1911,7 +1937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -1919,7 +1945,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>73</v>
@@ -2014,6 +2040,9 @@
       <c r="H19" s="10" t="s">
         <v>89</v>
       </c>
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -2023,7 +2052,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>91</v>
@@ -2041,135 +2070,135 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="15"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="10" t="s">
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="E22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="11" t="s">
+      <c r="F22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="15"/>
-      <c r="AR22" s="15"/>
-      <c r="AS22" s="15"/>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="15"/>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="15"/>
-      <c r="AY22" s="15"/>
-      <c r="AZ22" s="15"/>
-      <c r="BA22" s="15"/>
-      <c r="BB22" s="15"/>
-      <c r="BC22" s="15"/>
-      <c r="BD22" s="15"/>
-      <c r="BE22" s="15"/>
-      <c r="BF22" s="15"/>
-      <c r="BG22" s="15"/>
-      <c r="BH22" s="15"/>
-      <c r="BI22" s="15"/>
-      <c r="BJ22" s="15"/>
-      <c r="BK22" s="15"/>
-      <c r="BL22" s="15"/>
+      <c r="G22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" s="9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>104</v>
@@ -2178,7 +2207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="96.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -2186,7 +2215,7 @@
         <v>105</v>
       </c>
       <c r="C24" s="9" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -2204,7 +2233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -2212,7 +2241,7 @@
         <v>109</v>
       </c>
       <c r="C25" s="9" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>110</v>
@@ -2220,11 +2249,14 @@
       <c r="E25" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="G25" s="3" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>13</v>
@@ -2235,22 +2267,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>13</v>
@@ -2261,22 +2293,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>13</v>
@@ -2287,48 +2319,48 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C28" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C29" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>13</v>
@@ -2339,22 +2371,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C30" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>13</v>
@@ -2365,22 +2397,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C31" s="9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>13</v>
@@ -2391,22 +2423,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C32" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>13</v>
@@ -2417,401 +2449,462 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C33" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="10"/>
+      <c r="AX33" s="10"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="10"/>
+      <c r="BA33" s="10"/>
+      <c r="BB33" s="10"/>
+      <c r="BC33" s="10"/>
+      <c r="BD33" s="10"/>
+      <c r="BE33" s="10"/>
+      <c r="BF33" s="10"/>
+      <c r="BG33" s="10"/>
+      <c r="BH33" s="10"/>
+      <c r="BI33" s="10"/>
+      <c r="BJ33" s="10"/>
+      <c r="BK33" s="10"/>
+      <c r="BL33" s="10"/>
+    </row>
+    <row r="34" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="9" t="n">
+      <c r="B34" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="D34" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="E34" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="10"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
-      <c r="AP34" s="10"/>
-      <c r="AQ34" s="10"/>
-      <c r="AR34" s="10"/>
-      <c r="AS34" s="10"/>
-      <c r="AT34" s="10"/>
-      <c r="AU34" s="10"/>
-      <c r="AV34" s="10"/>
-      <c r="AW34" s="10"/>
-      <c r="AX34" s="10"/>
-      <c r="AY34" s="10"/>
-      <c r="AZ34" s="10"/>
-      <c r="BA34" s="10"/>
-      <c r="BB34" s="10"/>
-      <c r="BC34" s="10"/>
-      <c r="BD34" s="10"/>
-      <c r="BE34" s="10"/>
-      <c r="BF34" s="10"/>
-      <c r="BG34" s="10"/>
-      <c r="BH34" s="10"/>
-      <c r="BI34" s="10"/>
-      <c r="BJ34" s="10"/>
-      <c r="BK34" s="10"/>
-      <c r="BL34" s="10"/>
-    </row>
-    <row r="35" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="n">
+      <c r="F34" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="17"/>
+      <c r="AT34" s="17"/>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="17"/>
+      <c r="AW34" s="17"/>
+      <c r="AX34" s="17"/>
+      <c r="AY34" s="17"/>
+      <c r="AZ34" s="17"/>
+      <c r="BA34" s="17"/>
+      <c r="BB34" s="17"/>
+      <c r="BC34" s="17"/>
+      <c r="BD34" s="17"/>
+      <c r="BE34" s="17"/>
+      <c r="BF34" s="17"/>
+      <c r="BG34" s="17"/>
+      <c r="BH34" s="17"/>
+      <c r="BI34" s="17"/>
+      <c r="BJ34" s="17"/>
+      <c r="BK34" s="17"/>
+      <c r="BL34" s="17"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="14" t="s">
+      <c r="B35" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="C35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="17"/>
-      <c r="AQ35" s="17"/>
-      <c r="AR35" s="17"/>
-      <c r="AS35" s="17"/>
-      <c r="AT35" s="17"/>
-      <c r="AU35" s="17"/>
-      <c r="AV35" s="17"/>
-      <c r="AW35" s="17"/>
-      <c r="AX35" s="17"/>
-      <c r="AY35" s="17"/>
-      <c r="AZ35" s="17"/>
-      <c r="BA35" s="17"/>
-      <c r="BB35" s="17"/>
-      <c r="BC35" s="17"/>
-      <c r="BD35" s="17"/>
-      <c r="BE35" s="17"/>
-      <c r="BF35" s="17"/>
-      <c r="BG35" s="17"/>
-      <c r="BH35" s="17"/>
-      <c r="BI35" s="17"/>
-      <c r="BJ35" s="17"/>
-      <c r="BK35" s="17"/>
-      <c r="BL35" s="17"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="E35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="18" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="9" t="n">
+      <c r="B36" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
+      <c r="AL36" s="22"/>
+      <c r="AM36" s="22"/>
+      <c r="AN36" s="22"/>
+      <c r="AO36" s="22"/>
+      <c r="AP36" s="22"/>
+      <c r="AQ36" s="22"/>
+      <c r="AR36" s="22"/>
+      <c r="AS36" s="22"/>
+      <c r="AT36" s="22"/>
+      <c r="AU36" s="22"/>
+      <c r="AV36" s="22"/>
+      <c r="AW36" s="22"/>
+      <c r="AX36" s="22"/>
+      <c r="AY36" s="22"/>
+      <c r="AZ36" s="22"/>
+      <c r="BA36" s="22"/>
+      <c r="BB36" s="22"/>
+      <c r="BC36" s="22"/>
+      <c r="BD36" s="22"/>
+      <c r="BE36" s="22"/>
+      <c r="BF36" s="22"/>
+      <c r="BG36" s="22"/>
+      <c r="BH36" s="22"/>
+      <c r="BI36" s="22"/>
+      <c r="BJ36" s="22"/>
+      <c r="BK36" s="22"/>
+      <c r="BL36" s="22"/>
+    </row>
+    <row r="37" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="18" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="15"/>
-      <c r="AH37" s="15"/>
-      <c r="AI37" s="15"/>
-      <c r="AJ37" s="15"/>
-      <c r="AK37" s="15"/>
-      <c r="AL37" s="15"/>
-      <c r="AM37" s="15"/>
-      <c r="AN37" s="15"/>
-      <c r="AO37" s="15"/>
-      <c r="AP37" s="15"/>
-      <c r="AQ37" s="15"/>
-      <c r="AR37" s="15"/>
-      <c r="AS37" s="15"/>
-      <c r="AT37" s="15"/>
-      <c r="AU37" s="15"/>
-      <c r="AV37" s="15"/>
-      <c r="AW37" s="15"/>
-      <c r="AX37" s="15"/>
-      <c r="AY37" s="15"/>
-      <c r="AZ37" s="15"/>
-      <c r="BA37" s="15"/>
-      <c r="BB37" s="15"/>
-      <c r="BC37" s="15"/>
-      <c r="BD37" s="15"/>
-      <c r="BE37" s="15"/>
-      <c r="BF37" s="15"/>
-      <c r="BG37" s="15"/>
-      <c r="BH37" s="15"/>
-      <c r="BI37" s="15"/>
-      <c r="BJ37" s="15"/>
-      <c r="BK37" s="15"/>
-      <c r="BL37" s="15"/>
-    </row>
-    <row r="38" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="n">
+      <c r="G37" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="24"/>
+      <c r="AH37" s="24"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="24"/>
+      <c r="AL37" s="24"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="24"/>
+      <c r="AQ37" s="24"/>
+      <c r="AR37" s="24"/>
+      <c r="AS37" s="24"/>
+      <c r="AT37" s="24"/>
+      <c r="AU37" s="24"/>
+      <c r="AV37" s="24"/>
+      <c r="AW37" s="24"/>
+      <c r="AX37" s="24"/>
+      <c r="AY37" s="24"/>
+      <c r="AZ37" s="24"/>
+      <c r="BA37" s="24"/>
+      <c r="BB37" s="24"/>
+      <c r="BC37" s="24"/>
+      <c r="BD37" s="24"/>
+      <c r="BE37" s="24"/>
+      <c r="BF37" s="24"/>
+      <c r="BG37" s="24"/>
+      <c r="BH37" s="24"/>
+      <c r="BI37" s="24"/>
+      <c r="BJ37" s="24"/>
+      <c r="BK37" s="24"/>
+      <c r="BL37" s="24"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="H38" s="15" t="s">
+      <c r="B38" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
-      <c r="AM38" s="17"/>
-      <c r="AN38" s="17"/>
-      <c r="AO38" s="17"/>
-      <c r="AP38" s="17"/>
-      <c r="AQ38" s="17"/>
-      <c r="AR38" s="17"/>
-      <c r="AS38" s="17"/>
-      <c r="AT38" s="17"/>
-      <c r="AU38" s="17"/>
-      <c r="AV38" s="17"/>
-      <c r="AW38" s="17"/>
-      <c r="AX38" s="17"/>
-      <c r="AY38" s="17"/>
-      <c r="AZ38" s="17"/>
-      <c r="BA38" s="17"/>
-      <c r="BB38" s="17"/>
-      <c r="BC38" s="17"/>
-      <c r="BD38" s="17"/>
-      <c r="BE38" s="17"/>
-      <c r="BF38" s="17"/>
-      <c r="BG38" s="17"/>
-      <c r="BH38" s="17"/>
-      <c r="BI38" s="17"/>
-      <c r="BJ38" s="17"/>
-      <c r="BK38" s="17"/>
-      <c r="BL38" s="17"/>
+      <c r="C38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="10"/>
+      <c r="AQ38" s="10"/>
+      <c r="AR38" s="10"/>
+      <c r="AS38" s="10"/>
+      <c r="AT38" s="10"/>
+      <c r="AU38" s="10"/>
+      <c r="AV38" s="10"/>
+      <c r="AW38" s="10"/>
+      <c r="AX38" s="10"/>
+      <c r="AY38" s="10"/>
+      <c r="AZ38" s="10"/>
+      <c r="BA38" s="10"/>
+      <c r="BB38" s="10"/>
+      <c r="BC38" s="10"/>
+      <c r="BD38" s="10"/>
+      <c r="BE38" s="10"/>
+      <c r="BF38" s="10"/>
+      <c r="BG38" s="10"/>
+      <c r="BH38" s="10"/>
+      <c r="BI38" s="10"/>
+      <c r="BJ38" s="10"/>
+      <c r="BK38" s="10"/>
+      <c r="BL38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C39" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>13</v>
@@ -2877,463 +2970,574 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C40" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="H40" s="10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="10"/>
-      <c r="AN40" s="10"/>
-      <c r="AO40" s="10"/>
-      <c r="AP40" s="10"/>
-      <c r="AQ40" s="10"/>
-      <c r="AR40" s="10"/>
-      <c r="AS40" s="10"/>
-      <c r="AT40" s="10"/>
-      <c r="AU40" s="10"/>
-      <c r="AV40" s="10"/>
-      <c r="AW40" s="10"/>
-      <c r="AX40" s="10"/>
-      <c r="AY40" s="10"/>
-      <c r="AZ40" s="10"/>
-      <c r="BA40" s="10"/>
-      <c r="BB40" s="10"/>
-      <c r="BC40" s="10"/>
-      <c r="BD40" s="10"/>
-      <c r="BE40" s="10"/>
-      <c r="BF40" s="10"/>
-      <c r="BG40" s="10"/>
-      <c r="BH40" s="10"/>
-      <c r="BI40" s="10"/>
-      <c r="BJ40" s="10"/>
-      <c r="BK40" s="10"/>
-      <c r="BL40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C41" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="18" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="9" t="n">
+      <c r="B42" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="D42" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="24"/>
+      <c r="AH42" s="24"/>
+      <c r="AI42" s="24"/>
+      <c r="AJ42" s="24"/>
+      <c r="AK42" s="24"/>
+      <c r="AL42" s="24"/>
+      <c r="AM42" s="24"/>
+      <c r="AN42" s="24"/>
+      <c r="AO42" s="24"/>
+      <c r="AP42" s="24"/>
+      <c r="AQ42" s="24"/>
+      <c r="AR42" s="24"/>
+      <c r="AS42" s="24"/>
+      <c r="AT42" s="24"/>
+      <c r="AU42" s="24"/>
+      <c r="AV42" s="24"/>
+      <c r="AW42" s="24"/>
+      <c r="AX42" s="24"/>
+      <c r="AY42" s="24"/>
+      <c r="AZ42" s="24"/>
+      <c r="BA42" s="24"/>
+      <c r="BB42" s="24"/>
+      <c r="BC42" s="24"/>
+      <c r="BD42" s="24"/>
+      <c r="BE42" s="24"/>
+      <c r="BF42" s="24"/>
+      <c r="BG42" s="24"/>
+      <c r="BH42" s="24"/>
+      <c r="BI42" s="24"/>
+      <c r="BJ42" s="24"/>
+      <c r="BK42" s="24"/>
+      <c r="BL42" s="24"/>
+    </row>
+    <row r="43" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="18" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="9" t="n">
+      <c r="B43" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="D43" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="24"/>
+      <c r="AF43" s="24"/>
+      <c r="AG43" s="24"/>
+      <c r="AH43" s="24"/>
+      <c r="AI43" s="24"/>
+      <c r="AJ43" s="24"/>
+      <c r="AK43" s="24"/>
+      <c r="AL43" s="24"/>
+      <c r="AM43" s="24"/>
+      <c r="AN43" s="24"/>
+      <c r="AO43" s="24"/>
+      <c r="AP43" s="24"/>
+      <c r="AQ43" s="24"/>
+      <c r="AR43" s="24"/>
+      <c r="AS43" s="24"/>
+      <c r="AT43" s="24"/>
+      <c r="AU43" s="24"/>
+      <c r="AV43" s="24"/>
+      <c r="AW43" s="24"/>
+      <c r="AX43" s="24"/>
+      <c r="AY43" s="24"/>
+      <c r="AZ43" s="24"/>
+      <c r="BA43" s="24"/>
+      <c r="BB43" s="24"/>
+      <c r="BC43" s="24"/>
+      <c r="BD43" s="24"/>
+      <c r="BE43" s="24"/>
+      <c r="BF43" s="24"/>
+      <c r="BG43" s="24"/>
+      <c r="BH43" s="24"/>
+      <c r="BI43" s="24"/>
+      <c r="BJ43" s="24"/>
+      <c r="BK43" s="24"/>
+      <c r="BL43" s="24"/>
+    </row>
+    <row r="44" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="18" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="9" t="n">
+      <c r="B44" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="24"/>
+      <c r="AB44" s="24"/>
+      <c r="AC44" s="24"/>
+      <c r="AD44" s="24"/>
+      <c r="AE44" s="24"/>
+      <c r="AF44" s="24"/>
+      <c r="AG44" s="24"/>
+      <c r="AH44" s="24"/>
+      <c r="AI44" s="24"/>
+      <c r="AJ44" s="24"/>
+      <c r="AK44" s="24"/>
+      <c r="AL44" s="24"/>
+      <c r="AM44" s="24"/>
+      <c r="AN44" s="24"/>
+      <c r="AO44" s="24"/>
+      <c r="AP44" s="24"/>
+      <c r="AQ44" s="24"/>
+      <c r="AR44" s="24"/>
+      <c r="AS44" s="24"/>
+      <c r="AT44" s="24"/>
+      <c r="AU44" s="24"/>
+      <c r="AV44" s="24"/>
+      <c r="AW44" s="24"/>
+      <c r="AX44" s="24"/>
+      <c r="AY44" s="24"/>
+      <c r="AZ44" s="24"/>
+      <c r="BA44" s="24"/>
+      <c r="BB44" s="24"/>
+      <c r="BC44" s="24"/>
+      <c r="BD44" s="24"/>
+      <c r="BE44" s="24"/>
+      <c r="BF44" s="24"/>
+      <c r="BG44" s="24"/>
+      <c r="BH44" s="24"/>
+      <c r="BI44" s="24"/>
+      <c r="BJ44" s="24"/>
+      <c r="BK44" s="24"/>
+      <c r="BL44" s="24"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C45" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C46" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C47" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C48" s="9" t="n">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C49" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C50" s="9" t="n">
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C51" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C52" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C53" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C54" s="9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="16" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="14" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H55" s="17" t="s">
         <v>13</v>
@@ -3397,105 +3601,105 @@
       <c r="BK55" s="17"/>
       <c r="BL55" s="17"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C56" s="9" t="n">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C57" s="9" t="n">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C58" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C59" s="9" t="n">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>13</v>
@@ -3556,131 +3760,131 @@
       <c r="BK59" s="10"/>
       <c r="BL59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C60" s="9" t="n">
         <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C61" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C62" s="9" t="n">
         <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C63" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C64" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>13</v>
@@ -3741,619 +3945,901 @@
       <c r="BK64" s="10"/>
       <c r="BL64" s="10"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C65" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C66" s="9" t="n">
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="67" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="18" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C67" s="9" t="n">
+      <c r="B67" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C67" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="24"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="24"/>
+      <c r="AA67" s="24"/>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="24"/>
+      <c r="AI67" s="24"/>
+      <c r="AJ67" s="24"/>
+      <c r="AK67" s="24"/>
+      <c r="AL67" s="24"/>
+      <c r="AM67" s="24"/>
+      <c r="AN67" s="24"/>
+      <c r="AO67" s="24"/>
+      <c r="AP67" s="24"/>
+      <c r="AQ67" s="24"/>
+      <c r="AR67" s="24"/>
+      <c r="AS67" s="24"/>
+      <c r="AT67" s="24"/>
+      <c r="AU67" s="24"/>
+      <c r="AV67" s="24"/>
+      <c r="AW67" s="24"/>
+      <c r="AX67" s="24"/>
+      <c r="AY67" s="24"/>
+      <c r="AZ67" s="24"/>
+      <c r="BA67" s="24"/>
+      <c r="BB67" s="24"/>
+      <c r="BC67" s="24"/>
+      <c r="BD67" s="24"/>
+      <c r="BE67" s="24"/>
+      <c r="BF67" s="24"/>
+      <c r="BG67" s="24"/>
+      <c r="BH67" s="24"/>
+      <c r="BI67" s="24"/>
+      <c r="BJ67" s="24"/>
+      <c r="BK67" s="24"/>
+      <c r="BL67" s="24"/>
+    </row>
+    <row r="68" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="18" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C68" s="20" t="n">
         <v>1</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I68" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="23"/>
-      <c r="Q68" s="23"/>
-      <c r="R68" s="23"/>
-      <c r="S68" s="23"/>
-      <c r="T68" s="23"/>
-      <c r="U68" s="23"/>
-      <c r="V68" s="23"/>
-      <c r="W68" s="23"/>
-      <c r="X68" s="23"/>
-      <c r="Y68" s="23"/>
-      <c r="Z68" s="23"/>
-      <c r="AA68" s="23"/>
-      <c r="AB68" s="23"/>
-      <c r="AC68" s="23"/>
-      <c r="AD68" s="23"/>
-      <c r="AE68" s="23"/>
-      <c r="AF68" s="23"/>
-      <c r="AG68" s="23"/>
-      <c r="AH68" s="23"/>
-      <c r="AI68" s="23"/>
-      <c r="AJ68" s="23"/>
-      <c r="AK68" s="23"/>
-      <c r="AL68" s="23"/>
-      <c r="AM68" s="23"/>
-      <c r="AN68" s="23"/>
-      <c r="AO68" s="23"/>
-      <c r="AP68" s="23"/>
-      <c r="AQ68" s="23"/>
-      <c r="AR68" s="23"/>
-      <c r="AS68" s="23"/>
-      <c r="AT68" s="23"/>
-      <c r="AU68" s="23"/>
-      <c r="AV68" s="23"/>
-      <c r="AW68" s="23"/>
-      <c r="AX68" s="23"/>
-      <c r="AY68" s="23"/>
-      <c r="AZ68" s="23"/>
-      <c r="BA68" s="23"/>
-      <c r="BB68" s="23"/>
-      <c r="BC68" s="23"/>
-      <c r="BD68" s="23"/>
-      <c r="BE68" s="23"/>
-      <c r="BF68" s="23"/>
-      <c r="BG68" s="23"/>
-      <c r="BH68" s="23"/>
-      <c r="BI68" s="23"/>
-      <c r="BJ68" s="23"/>
-      <c r="BK68" s="23"/>
-      <c r="BL68" s="23"/>
-    </row>
-    <row r="69" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="24"/>
+      <c r="AC68" s="24"/>
+      <c r="AD68" s="24"/>
+      <c r="AE68" s="24"/>
+      <c r="AF68" s="24"/>
+      <c r="AG68" s="24"/>
+      <c r="AH68" s="24"/>
+      <c r="AI68" s="24"/>
+      <c r="AJ68" s="24"/>
+      <c r="AK68" s="24"/>
+      <c r="AL68" s="24"/>
+      <c r="AM68" s="24"/>
+      <c r="AN68" s="24"/>
+      <c r="AO68" s="24"/>
+      <c r="AP68" s="24"/>
+      <c r="AQ68" s="24"/>
+      <c r="AR68" s="24"/>
+      <c r="AS68" s="24"/>
+      <c r="AT68" s="24"/>
+      <c r="AU68" s="24"/>
+      <c r="AV68" s="24"/>
+      <c r="AW68" s="24"/>
+      <c r="AX68" s="24"/>
+      <c r="AY68" s="24"/>
+      <c r="AZ68" s="24"/>
+      <c r="BA68" s="24"/>
+      <c r="BB68" s="24"/>
+      <c r="BC68" s="24"/>
+      <c r="BD68" s="24"/>
+      <c r="BE68" s="24"/>
+      <c r="BF68" s="24"/>
+      <c r="BG68" s="24"/>
+      <c r="BH68" s="24"/>
+      <c r="BI68" s="24"/>
+      <c r="BJ68" s="24"/>
+      <c r="BK68" s="24"/>
+      <c r="BL68" s="24"/>
+    </row>
+    <row r="69" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="18" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C69" s="20" t="n">
         <v>1</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="21" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I69" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="23"/>
-      <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="23"/>
-      <c r="W69" s="23"/>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="23"/>
-      <c r="Z69" s="23"/>
-      <c r="AA69" s="23"/>
-      <c r="AB69" s="23"/>
-      <c r="AC69" s="23"/>
-      <c r="AD69" s="23"/>
-      <c r="AE69" s="23"/>
-      <c r="AF69" s="23"/>
-      <c r="AG69" s="23"/>
-      <c r="AH69" s="23"/>
-      <c r="AI69" s="23"/>
-      <c r="AJ69" s="23"/>
-      <c r="AK69" s="23"/>
-      <c r="AL69" s="23"/>
-      <c r="AM69" s="23"/>
-      <c r="AN69" s="23"/>
-      <c r="AO69" s="23"/>
-      <c r="AP69" s="23"/>
-      <c r="AQ69" s="23"/>
-      <c r="AR69" s="23"/>
-      <c r="AS69" s="23"/>
-      <c r="AT69" s="23"/>
-      <c r="AU69" s="23"/>
-      <c r="AV69" s="23"/>
-      <c r="AW69" s="23"/>
-      <c r="AX69" s="23"/>
-      <c r="AY69" s="23"/>
-      <c r="AZ69" s="23"/>
-      <c r="BA69" s="23"/>
-      <c r="BB69" s="23"/>
-      <c r="BC69" s="23"/>
-      <c r="BD69" s="23"/>
-      <c r="BE69" s="23"/>
-      <c r="BF69" s="23"/>
-      <c r="BG69" s="23"/>
-      <c r="BH69" s="23"/>
-      <c r="BI69" s="23"/>
-      <c r="BJ69" s="23"/>
-      <c r="BK69" s="23"/>
-      <c r="BL69" s="23"/>
-    </row>
-    <row r="70" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="24"/>
+      <c r="AH69" s="24"/>
+      <c r="AI69" s="24"/>
+      <c r="AJ69" s="24"/>
+      <c r="AK69" s="24"/>
+      <c r="AL69" s="24"/>
+      <c r="AM69" s="24"/>
+      <c r="AN69" s="24"/>
+      <c r="AO69" s="24"/>
+      <c r="AP69" s="24"/>
+      <c r="AQ69" s="24"/>
+      <c r="AR69" s="24"/>
+      <c r="AS69" s="24"/>
+      <c r="AT69" s="24"/>
+      <c r="AU69" s="24"/>
+      <c r="AV69" s="24"/>
+      <c r="AW69" s="24"/>
+      <c r="AX69" s="24"/>
+      <c r="AY69" s="24"/>
+      <c r="AZ69" s="24"/>
+      <c r="BA69" s="24"/>
+      <c r="BB69" s="24"/>
+      <c r="BC69" s="24"/>
+      <c r="BD69" s="24"/>
+      <c r="BE69" s="24"/>
+      <c r="BF69" s="24"/>
+      <c r="BG69" s="24"/>
+      <c r="BH69" s="24"/>
+      <c r="BI69" s="24"/>
+      <c r="BJ69" s="24"/>
+      <c r="BK69" s="24"/>
+      <c r="BL69" s="24"/>
+    </row>
+    <row r="70" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="18" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C70" s="20" t="n">
         <v>1</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I70" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="23"/>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="23"/>
-      <c r="S70" s="23"/>
-      <c r="T70" s="23"/>
-      <c r="U70" s="23"/>
-      <c r="V70" s="23"/>
-      <c r="W70" s="23"/>
-      <c r="X70" s="23"/>
-      <c r="Y70" s="23"/>
-      <c r="Z70" s="23"/>
-      <c r="AA70" s="23"/>
-      <c r="AB70" s="23"/>
-      <c r="AC70" s="23"/>
-      <c r="AD70" s="23"/>
-      <c r="AE70" s="23"/>
-      <c r="AF70" s="23"/>
-      <c r="AG70" s="23"/>
-      <c r="AH70" s="23"/>
-      <c r="AI70" s="23"/>
-      <c r="AJ70" s="23"/>
-      <c r="AK70" s="23"/>
-      <c r="AL70" s="23"/>
-      <c r="AM70" s="23"/>
-      <c r="AN70" s="23"/>
-      <c r="AO70" s="23"/>
-      <c r="AP70" s="23"/>
-      <c r="AQ70" s="23"/>
-      <c r="AR70" s="23"/>
-      <c r="AS70" s="23"/>
-      <c r="AT70" s="23"/>
-      <c r="AU70" s="23"/>
-      <c r="AV70" s="23"/>
-      <c r="AW70" s="23"/>
-      <c r="AX70" s="23"/>
-      <c r="AY70" s="23"/>
-      <c r="AZ70" s="23"/>
-      <c r="BA70" s="23"/>
-      <c r="BB70" s="23"/>
-      <c r="BC70" s="23"/>
-      <c r="BD70" s="23"/>
-      <c r="BE70" s="23"/>
-      <c r="BF70" s="23"/>
-      <c r="BG70" s="23"/>
-      <c r="BH70" s="23"/>
-      <c r="BI70" s="23"/>
-      <c r="BJ70" s="23"/>
-      <c r="BK70" s="23"/>
-      <c r="BL70" s="23"/>
-    </row>
-    <row r="71" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="24"/>
+      <c r="AB70" s="24"/>
+      <c r="AC70" s="24"/>
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="24"/>
+      <c r="AF70" s="24"/>
+      <c r="AG70" s="24"/>
+      <c r="AH70" s="24"/>
+      <c r="AI70" s="24"/>
+      <c r="AJ70" s="24"/>
+      <c r="AK70" s="24"/>
+      <c r="AL70" s="24"/>
+      <c r="AM70" s="24"/>
+      <c r="AN70" s="24"/>
+      <c r="AO70" s="24"/>
+      <c r="AP70" s="24"/>
+      <c r="AQ70" s="24"/>
+      <c r="AR70" s="24"/>
+      <c r="AS70" s="24"/>
+      <c r="AT70" s="24"/>
+      <c r="AU70" s="24"/>
+      <c r="AV70" s="24"/>
+      <c r="AW70" s="24"/>
+      <c r="AX70" s="24"/>
+      <c r="AY70" s="24"/>
+      <c r="AZ70" s="24"/>
+      <c r="BA70" s="24"/>
+      <c r="BB70" s="24"/>
+      <c r="BC70" s="24"/>
+      <c r="BD70" s="24"/>
+      <c r="BE70" s="24"/>
+      <c r="BF70" s="24"/>
+      <c r="BG70" s="24"/>
+      <c r="BH70" s="24"/>
+      <c r="BI70" s="24"/>
+      <c r="BJ70" s="24"/>
+      <c r="BK70" s="24"/>
+      <c r="BL70" s="24"/>
+    </row>
+    <row r="71" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="18" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C71" s="20" t="n">
         <v>1</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I71" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
-      <c r="R71" s="23"/>
-      <c r="S71" s="23"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="23"/>
-      <c r="W71" s="23"/>
-      <c r="X71" s="23"/>
-      <c r="Y71" s="23"/>
-      <c r="Z71" s="23"/>
-      <c r="AA71" s="23"/>
-      <c r="AB71" s="23"/>
-      <c r="AC71" s="23"/>
-      <c r="AD71" s="23"/>
-      <c r="AE71" s="23"/>
-      <c r="AF71" s="23"/>
-      <c r="AG71" s="23"/>
-      <c r="AH71" s="23"/>
-      <c r="AI71" s="23"/>
-      <c r="AJ71" s="23"/>
-      <c r="AK71" s="23"/>
-      <c r="AL71" s="23"/>
-      <c r="AM71" s="23"/>
-      <c r="AN71" s="23"/>
-      <c r="AO71" s="23"/>
-      <c r="AP71" s="23"/>
-      <c r="AQ71" s="23"/>
-      <c r="AR71" s="23"/>
-      <c r="AS71" s="23"/>
-      <c r="AT71" s="23"/>
-      <c r="AU71" s="23"/>
-      <c r="AV71" s="23"/>
-      <c r="AW71" s="23"/>
-      <c r="AX71" s="23"/>
-      <c r="AY71" s="23"/>
-      <c r="AZ71" s="23"/>
-      <c r="BA71" s="23"/>
-      <c r="BB71" s="23"/>
-      <c r="BC71" s="23"/>
-      <c r="BD71" s="23"/>
-      <c r="BE71" s="23"/>
-      <c r="BF71" s="23"/>
-      <c r="BG71" s="23"/>
-      <c r="BH71" s="23"/>
-      <c r="BI71" s="23"/>
-      <c r="BJ71" s="23"/>
-      <c r="BK71" s="23"/>
-      <c r="BL71" s="23"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="24"/>
+      <c r="W71" s="24"/>
+      <c r="X71" s="24"/>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="24"/>
+      <c r="AA71" s="24"/>
+      <c r="AB71" s="24"/>
+      <c r="AC71" s="24"/>
+      <c r="AD71" s="24"/>
+      <c r="AE71" s="24"/>
+      <c r="AF71" s="24"/>
+      <c r="AG71" s="24"/>
+      <c r="AH71" s="24"/>
+      <c r="AI71" s="24"/>
+      <c r="AJ71" s="24"/>
+      <c r="AK71" s="24"/>
+      <c r="AL71" s="24"/>
+      <c r="AM71" s="24"/>
+      <c r="AN71" s="24"/>
+      <c r="AO71" s="24"/>
+      <c r="AP71" s="24"/>
+      <c r="AQ71" s="24"/>
+      <c r="AR71" s="24"/>
+      <c r="AS71" s="24"/>
+      <c r="AT71" s="24"/>
+      <c r="AU71" s="24"/>
+      <c r="AV71" s="24"/>
+      <c r="AW71" s="24"/>
+      <c r="AX71" s="24"/>
+      <c r="AY71" s="24"/>
+      <c r="AZ71" s="24"/>
+      <c r="BA71" s="24"/>
+      <c r="BB71" s="24"/>
+      <c r="BC71" s="24"/>
+      <c r="BD71" s="24"/>
+      <c r="BE71" s="24"/>
+      <c r="BF71" s="24"/>
+      <c r="BG71" s="24"/>
+      <c r="BH71" s="24"/>
+      <c r="BI71" s="24"/>
+      <c r="BJ71" s="24"/>
+      <c r="BK71" s="24"/>
+      <c r="BL71" s="24"/>
+    </row>
+    <row r="72" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="18" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C72" s="9" t="n">
+      <c r="B72" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C72" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H72" s="10" t="s">
+      <c r="D72" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="E72" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="24"/>
+      <c r="AA72" s="24"/>
+      <c r="AB72" s="24"/>
+      <c r="AC72" s="24"/>
+      <c r="AD72" s="24"/>
+      <c r="AE72" s="24"/>
+      <c r="AF72" s="24"/>
+      <c r="AG72" s="24"/>
+      <c r="AH72" s="24"/>
+      <c r="AI72" s="24"/>
+      <c r="AJ72" s="24"/>
+      <c r="AK72" s="24"/>
+      <c r="AL72" s="24"/>
+      <c r="AM72" s="24"/>
+      <c r="AN72" s="24"/>
+      <c r="AO72" s="24"/>
+      <c r="AP72" s="24"/>
+      <c r="AQ72" s="24"/>
+      <c r="AR72" s="24"/>
+      <c r="AS72" s="24"/>
+      <c r="AT72" s="24"/>
+      <c r="AU72" s="24"/>
+      <c r="AV72" s="24"/>
+      <c r="AW72" s="24"/>
+      <c r="AX72" s="24"/>
+      <c r="AY72" s="24"/>
+      <c r="AZ72" s="24"/>
+      <c r="BA72" s="24"/>
+      <c r="BB72" s="24"/>
+      <c r="BC72" s="24"/>
+      <c r="BD72" s="24"/>
+      <c r="BE72" s="24"/>
+      <c r="BF72" s="24"/>
+      <c r="BG72" s="24"/>
+      <c r="BH72" s="24"/>
+      <c r="BI72" s="24"/>
+      <c r="BJ72" s="24"/>
+      <c r="BK72" s="24"/>
+      <c r="BL72" s="24"/>
+    </row>
+    <row r="73" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="18" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C73" s="9" t="n">
+      <c r="B73" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C73" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H73" s="10" t="s">
+      <c r="D73" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="E73" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="24"/>
+      <c r="X73" s="24"/>
+      <c r="Y73" s="24"/>
+      <c r="Z73" s="24"/>
+      <c r="AA73" s="24"/>
+      <c r="AB73" s="24"/>
+      <c r="AC73" s="24"/>
+      <c r="AD73" s="24"/>
+      <c r="AE73" s="24"/>
+      <c r="AF73" s="24"/>
+      <c r="AG73" s="24"/>
+      <c r="AH73" s="24"/>
+      <c r="AI73" s="24"/>
+      <c r="AJ73" s="24"/>
+      <c r="AK73" s="24"/>
+      <c r="AL73" s="24"/>
+      <c r="AM73" s="24"/>
+      <c r="AN73" s="24"/>
+      <c r="AO73" s="24"/>
+      <c r="AP73" s="24"/>
+      <c r="AQ73" s="24"/>
+      <c r="AR73" s="24"/>
+      <c r="AS73" s="24"/>
+      <c r="AT73" s="24"/>
+      <c r="AU73" s="24"/>
+      <c r="AV73" s="24"/>
+      <c r="AW73" s="24"/>
+      <c r="AX73" s="24"/>
+      <c r="AY73" s="24"/>
+      <c r="AZ73" s="24"/>
+      <c r="BA73" s="24"/>
+      <c r="BB73" s="24"/>
+      <c r="BC73" s="24"/>
+      <c r="BD73" s="24"/>
+      <c r="BE73" s="24"/>
+      <c r="BF73" s="24"/>
+      <c r="BG73" s="24"/>
+      <c r="BH73" s="24"/>
+      <c r="BI73" s="24"/>
+      <c r="BJ73" s="24"/>
+      <c r="BK73" s="24"/>
+      <c r="BL73" s="24"/>
+    </row>
+    <row r="74" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="18" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C74" s="9" t="n">
+      <c r="B74" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H74" s="10" t="s">
+      <c r="D74" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="E74" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="F74" s="18"/>
+      <c r="G74" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="24"/>
+      <c r="V74" s="24"/>
+      <c r="W74" s="24"/>
+      <c r="X74" s="24"/>
+      <c r="Y74" s="24"/>
+      <c r="Z74" s="24"/>
+      <c r="AA74" s="24"/>
+      <c r="AB74" s="24"/>
+      <c r="AC74" s="24"/>
+      <c r="AD74" s="24"/>
+      <c r="AE74" s="24"/>
+      <c r="AF74" s="24"/>
+      <c r="AG74" s="24"/>
+      <c r="AH74" s="24"/>
+      <c r="AI74" s="24"/>
+      <c r="AJ74" s="24"/>
+      <c r="AK74" s="24"/>
+      <c r="AL74" s="24"/>
+      <c r="AM74" s="24"/>
+      <c r="AN74" s="24"/>
+      <c r="AO74" s="24"/>
+      <c r="AP74" s="24"/>
+      <c r="AQ74" s="24"/>
+      <c r="AR74" s="24"/>
+      <c r="AS74" s="24"/>
+      <c r="AT74" s="24"/>
+      <c r="AU74" s="24"/>
+      <c r="AV74" s="24"/>
+      <c r="AW74" s="24"/>
+      <c r="AX74" s="24"/>
+      <c r="AY74" s="24"/>
+      <c r="AZ74" s="24"/>
+      <c r="BA74" s="24"/>
+      <c r="BB74" s="24"/>
+      <c r="BC74" s="24"/>
+      <c r="BD74" s="24"/>
+      <c r="BE74" s="24"/>
+      <c r="BF74" s="24"/>
+      <c r="BG74" s="24"/>
+      <c r="BH74" s="24"/>
+      <c r="BI74" s="24"/>
+      <c r="BJ74" s="24"/>
+      <c r="BK74" s="24"/>
+      <c r="BL74" s="24"/>
+    </row>
+    <row r="75" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="18" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C75" s="9" t="n">
+      <c r="B75" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C75" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H75" s="10" t="s">
+      <c r="D75" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="E75" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F75" s="18"/>
+      <c r="G75" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="24"/>
+      <c r="V75" s="24"/>
+      <c r="W75" s="24"/>
+      <c r="X75" s="24"/>
+      <c r="Y75" s="24"/>
+      <c r="Z75" s="24"/>
+      <c r="AA75" s="24"/>
+      <c r="AB75" s="24"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="24"/>
+      <c r="AE75" s="24"/>
+      <c r="AF75" s="24"/>
+      <c r="AG75" s="24"/>
+      <c r="AH75" s="24"/>
+      <c r="AI75" s="24"/>
+      <c r="AJ75" s="24"/>
+      <c r="AK75" s="24"/>
+      <c r="AL75" s="24"/>
+      <c r="AM75" s="24"/>
+      <c r="AN75" s="24"/>
+      <c r="AO75" s="24"/>
+      <c r="AP75" s="24"/>
+      <c r="AQ75" s="24"/>
+      <c r="AR75" s="24"/>
+      <c r="AS75" s="24"/>
+      <c r="AT75" s="24"/>
+      <c r="AU75" s="24"/>
+      <c r="AV75" s="24"/>
+      <c r="AW75" s="24"/>
+      <c r="AX75" s="24"/>
+      <c r="AY75" s="24"/>
+      <c r="AZ75" s="24"/>
+      <c r="BA75" s="24"/>
+      <c r="BB75" s="24"/>
+      <c r="BC75" s="24"/>
+      <c r="BD75" s="24"/>
+      <c r="BE75" s="24"/>
+      <c r="BF75" s="24"/>
+      <c r="BG75" s="24"/>
+      <c r="BH75" s="24"/>
+      <c r="BI75" s="24"/>
+      <c r="BJ75" s="24"/>
+      <c r="BK75" s="24"/>
+      <c r="BL75" s="24"/>
+    </row>
+    <row r="76" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="18" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C76" s="9" t="n">
+      <c r="B76" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C76" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="H76" s="10" t="s">
+      <c r="D76" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="10"/>
-      <c r="W76" s="10"/>
-      <c r="X76" s="10"/>
-      <c r="Y76" s="10"/>
-      <c r="Z76" s="10"/>
-      <c r="AA76" s="10"/>
-      <c r="AB76" s="10"/>
-      <c r="AC76" s="10"/>
-      <c r="AD76" s="10"/>
-      <c r="AE76" s="10"/>
-      <c r="AF76" s="10"/>
-      <c r="AG76" s="10"/>
-      <c r="AH76" s="10"/>
-      <c r="AI76" s="10"/>
-      <c r="AJ76" s="10"/>
-      <c r="AK76" s="10"/>
-      <c r="AL76" s="10"/>
-      <c r="AM76" s="10"/>
-      <c r="AN76" s="10"/>
-      <c r="AO76" s="10"/>
-      <c r="AP76" s="10"/>
-      <c r="AQ76" s="10"/>
-      <c r="AR76" s="10"/>
-      <c r="AS76" s="10"/>
-      <c r="AT76" s="10"/>
-      <c r="AU76" s="10"/>
-      <c r="AV76" s="10"/>
-      <c r="AW76" s="10"/>
-      <c r="AX76" s="10"/>
-      <c r="AY76" s="10"/>
-      <c r="AZ76" s="10"/>
-      <c r="BA76" s="10"/>
-      <c r="BB76" s="10"/>
-      <c r="BC76" s="10"/>
-      <c r="BD76" s="10"/>
-      <c r="BE76" s="10"/>
-      <c r="BF76" s="10"/>
-      <c r="BG76" s="10"/>
-      <c r="BH76" s="10"/>
-      <c r="BI76" s="10"/>
-      <c r="BJ76" s="10"/>
-      <c r="BK76" s="10"/>
-      <c r="BL76" s="10"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="22"/>
+      <c r="U76" s="22"/>
+      <c r="V76" s="22"/>
+      <c r="W76" s="22"/>
+      <c r="X76" s="22"/>
+      <c r="Y76" s="22"/>
+      <c r="Z76" s="22"/>
+      <c r="AA76" s="22"/>
+      <c r="AB76" s="22"/>
+      <c r="AC76" s="22"/>
+      <c r="AD76" s="22"/>
+      <c r="AE76" s="22"/>
+      <c r="AF76" s="22"/>
+      <c r="AG76" s="22"/>
+      <c r="AH76" s="22"/>
+      <c r="AI76" s="22"/>
+      <c r="AJ76" s="22"/>
+      <c r="AK76" s="22"/>
+      <c r="AL76" s="22"/>
+      <c r="AM76" s="22"/>
+      <c r="AN76" s="22"/>
+      <c r="AO76" s="22"/>
+      <c r="AP76" s="22"/>
+      <c r="AQ76" s="22"/>
+      <c r="AR76" s="22"/>
+      <c r="AS76" s="22"/>
+      <c r="AT76" s="22"/>
+      <c r="AU76" s="22"/>
+      <c r="AV76" s="22"/>
+      <c r="AW76" s="22"/>
+      <c r="AX76" s="22"/>
+      <c r="AY76" s="22"/>
+      <c r="AZ76" s="22"/>
+      <c r="BA76" s="22"/>
+      <c r="BB76" s="22"/>
+      <c r="BC76" s="22"/>
+      <c r="BD76" s="22"/>
+      <c r="BE76" s="22"/>
+      <c r="BF76" s="22"/>
+      <c r="BG76" s="22"/>
+      <c r="BH76" s="22"/>
+      <c r="BI76" s="22"/>
+      <c r="BJ76" s="22"/>
+      <c r="BK76" s="22"/>
+      <c r="BL76" s="22"/>
+    </row>
+    <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C77" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>13</v>
@@ -4415,10 +4901,10 @@
       <c r="BL77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="25"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="27"/>
-      <c r="I78" s="28"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="I78" s="29"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
@@ -4475,15 +4961,16 @@
       <c r="BK78" s="10"/>
       <c r="BL78" s="10"/>
     </row>
-    <row r="79" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="B79" s="29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C79" s="27"/>
-      <c r="I79" s="28"/>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="C79" s="0"/>
+      <c r="D79" s="0"/>
+      <c r="I79" s="29"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
@@ -4540,15 +5027,16 @@
       <c r="BK79" s="10"/>
       <c r="BL79" s="10"/>
     </row>
-    <row r="80" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C80" s="27"/>
-      <c r="I80" s="28"/>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="C80" s="0"/>
+      <c r="D80" s="0"/>
+      <c r="I80" s="29"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
@@ -4605,15 +5093,16 @@
       <c r="BK80" s="10"/>
       <c r="BL80" s="10"/>
     </row>
-    <row r="81" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="B81" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="C81" s="27"/>
-      <c r="I81" s="28"/>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C81" s="0"/>
+      <c r="D81" s="0"/>
+      <c r="I81" s="29"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -4670,16 +5159,16 @@
       <c r="BK81" s="10"/>
       <c r="BL81" s="10"/>
     </row>
-    <row r="82" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="B82" s="33" t="n">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="B82" s="34" t="n">
         <f aca="false">SUM(C2:C77)</f>
-        <v>128</v>
-      </c>
-      <c r="C82" s="27"/>
-      <c r="I82" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="C82" s="28"/>
+      <c r="I82" s="29"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
@@ -4736,16 +5225,16 @@
       <c r="BK82" s="10"/>
       <c r="BL82" s="10"/>
     </row>
-    <row r="83" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="B83" s="33" t="n">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B83" s="34" t="n">
         <f aca="false">COUNTIF(C2:C77, "&lt;&gt;")</f>
-        <v>71</v>
-      </c>
-      <c r="C83" s="27"/>
-      <c r="I83" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="C83" s="28"/>
+      <c r="I83" s="29"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -4803,8 +5292,8 @@
       <c r="BL83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="25"/>
-      <c r="I84" s="28"/>
+      <c r="A84" s="26"/>
+      <c r="I84" s="29"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
@@ -4861,9 +5350,12 @@
       <c r="BK84" s="10"/>
       <c r="BL84" s="10"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="25"/>
-      <c r="I85" s="28"/>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="I85" s="29"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
@@ -4921,178 +5413,13 @@
       <c r="BL85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="28"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
-      <c r="R86" s="10"/>
-      <c r="S86" s="10"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="10"/>
-      <c r="X86" s="10"/>
-      <c r="Y86" s="10"/>
-      <c r="Z86" s="10"/>
-      <c r="AA86" s="10"/>
-      <c r="AB86" s="10"/>
-      <c r="AC86" s="10"/>
-      <c r="AD86" s="10"/>
-      <c r="AE86" s="10"/>
-      <c r="AF86" s="10"/>
-      <c r="AG86" s="10"/>
-      <c r="AH86" s="10"/>
-      <c r="AI86" s="10"/>
-      <c r="AJ86" s="10"/>
-      <c r="AK86" s="10"/>
-      <c r="AL86" s="10"/>
-      <c r="AM86" s="10"/>
-      <c r="AN86" s="10"/>
-      <c r="AO86" s="10"/>
-      <c r="AP86" s="10"/>
-      <c r="AQ86" s="10"/>
-      <c r="AR86" s="10"/>
-      <c r="AS86" s="10"/>
-      <c r="AT86" s="10"/>
-      <c r="AU86" s="10"/>
-      <c r="AV86" s="10"/>
-      <c r="AW86" s="10"/>
-      <c r="AX86" s="10"/>
-      <c r="AY86" s="10"/>
-      <c r="AZ86" s="10"/>
-      <c r="BA86" s="10"/>
-      <c r="BB86" s="10"/>
-      <c r="BC86" s="10"/>
-      <c r="BD86" s="10"/>
-      <c r="BE86" s="10"/>
-      <c r="BF86" s="10"/>
-      <c r="BG86" s="10"/>
-      <c r="BH86" s="10"/>
-      <c r="BI86" s="10"/>
-      <c r="BJ86" s="10"/>
-      <c r="BK86" s="10"/>
-      <c r="BL86" s="10"/>
+      <c r="H86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="28"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
-      <c r="R87" s="10"/>
-      <c r="S87" s="10"/>
-      <c r="T87" s="10"/>
-      <c r="U87" s="10"/>
-      <c r="V87" s="10"/>
-      <c r="W87" s="10"/>
-      <c r="X87" s="10"/>
-      <c r="Y87" s="10"/>
-      <c r="Z87" s="10"/>
-      <c r="AA87" s="10"/>
-      <c r="AB87" s="10"/>
-      <c r="AC87" s="10"/>
-      <c r="AD87" s="10"/>
-      <c r="AE87" s="10"/>
-      <c r="AF87" s="10"/>
-      <c r="AG87" s="10"/>
-      <c r="AH87" s="10"/>
-      <c r="AI87" s="10"/>
-      <c r="AJ87" s="10"/>
-      <c r="AK87" s="10"/>
-      <c r="AL87" s="10"/>
-      <c r="AM87" s="10"/>
-      <c r="AN87" s="10"/>
-      <c r="AO87" s="10"/>
-      <c r="AP87" s="10"/>
-      <c r="AQ87" s="10"/>
-      <c r="AR87" s="10"/>
-      <c r="AS87" s="10"/>
-      <c r="AT87" s="10"/>
-      <c r="AU87" s="10"/>
-      <c r="AV87" s="10"/>
-      <c r="AW87" s="10"/>
-      <c r="AX87" s="10"/>
-      <c r="AY87" s="10"/>
-      <c r="AZ87" s="10"/>
-      <c r="BA87" s="10"/>
-      <c r="BB87" s="10"/>
-      <c r="BC87" s="10"/>
-      <c r="BD87" s="10"/>
-      <c r="BE87" s="10"/>
-      <c r="BF87" s="10"/>
-      <c r="BG87" s="10"/>
-      <c r="BH87" s="10"/>
-      <c r="BI87" s="10"/>
-      <c r="BJ87" s="10"/>
-      <c r="BK87" s="10"/>
-      <c r="BL87" s="10"/>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="28"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="10"/>
-      <c r="T88" s="10"/>
-      <c r="U88" s="10"/>
-      <c r="V88" s="10"/>
-      <c r="W88" s="10"/>
-      <c r="X88" s="10"/>
-      <c r="Y88" s="10"/>
-      <c r="Z88" s="10"/>
-      <c r="AA88" s="10"/>
-      <c r="AB88" s="10"/>
-      <c r="AC88" s="10"/>
-      <c r="AD88" s="10"/>
-      <c r="AE88" s="10"/>
-      <c r="AF88" s="10"/>
-      <c r="AG88" s="10"/>
-      <c r="AH88" s="10"/>
-      <c r="AI88" s="10"/>
-      <c r="AJ88" s="10"/>
-      <c r="AK88" s="10"/>
-      <c r="AL88" s="10"/>
-      <c r="AM88" s="10"/>
-      <c r="AN88" s="10"/>
-      <c r="AO88" s="10"/>
-      <c r="AP88" s="10"/>
-      <c r="AQ88" s="10"/>
-      <c r="AR88" s="10"/>
-      <c r="AS88" s="10"/>
-      <c r="AT88" s="10"/>
-      <c r="AU88" s="10"/>
-      <c r="AV88" s="10"/>
-      <c r="AW88" s="10"/>
-      <c r="AX88" s="10"/>
-      <c r="AY88" s="10"/>
-      <c r="AZ88" s="10"/>
-      <c r="BA88" s="10"/>
-      <c r="BB88" s="10"/>
-      <c r="BC88" s="10"/>
-      <c r="BD88" s="10"/>
-      <c r="BE88" s="10"/>
-      <c r="BF88" s="10"/>
-      <c r="BG88" s="10"/>
-      <c r="BH88" s="10"/>
-      <c r="BI88" s="10"/>
-      <c r="BJ88" s="10"/>
-      <c r="BK88" s="10"/>
-      <c r="BL88" s="10"/>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H89" s="10"/>
@@ -5121,35 +5448,29 @@
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H97" s="10"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H98" s="10"/>
-    </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H99" s="10"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="35"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H100" s="10"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="37"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="36"/>
+      <c r="B101" s="38"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9"/>
-      <c r="B102" s="34"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="39"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="35"/>
-      <c r="B103" s="36"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="35"/>
-      <c r="B104" s="37"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="35"/>
-      <c r="B105" s="38"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="35"/>
-      <c r="B106" s="38"/>
-    </row>
+      <c r="A103" s="36"/>
+      <c r="B103" s="39"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="https://www.digikey.nl/short/zdc4q9"/>
@@ -5170,32 +5491,32 @@
     <hyperlink ref="H16" r:id="rId16" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN3R3_C327287.html"/>
     <hyperlink ref="H17" r:id="rId17" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Taiyo-Yuden-JMK316ABJ107ML-T_C268006.html"/>
     <hyperlink ref="H18" r:id="rId18" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN3R9_C505474.html"/>
-    <hyperlink ref="H19" r:id="rId19" display="https://www.digikey.nl/short/z0nzzw"/>
-    <hyperlink ref="H20" r:id="rId20" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN1R3_C327229.html"/>
-    <hyperlink ref="H21" r:id="rId21" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R7BB102_C189467.html"/>
-    <hyperlink ref="H22" r:id="rId22" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN3R3_C327287.html"/>
-    <hyperlink ref="H23" r:id="rId23" display="https://lcsc.com/product-detail/Others_Taiyo-Yuden_JMK107ABJ106KA-T_Taiyo-Yuden-JMK107ABJ106KA-T_C319196.html"/>
-    <hyperlink ref="H24" r:id="rId24" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL05A105KQ5NNNC_C107372.html"/>
-    <hyperlink ref="H25" r:id="rId25" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R7BB104_C60474.html"/>
-    <hyperlink ref="H26" r:id="rId26" display="https://lcsc.com/product-detail/TVS_Nexperia-PESD5V0S1BA-115_C19224.html"/>
-    <hyperlink ref="H27" r:id="rId27" display="https://lcsc.com/product-detail/Switching-Diode_Diodes-Incorporated-1N4148WSF-7_C119617.html"/>
-    <hyperlink ref="H28" r:id="rId28" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Foshan-NationStar-Optoelectronics-FM-B2020RGBA-HG_C108793.html"/>
-    <hyperlink ref="H29" r:id="rId29" display="https://lcsc.com/product-detail/TVS_Leiditech-ESD9D5V_C384848.html"/>
-    <hyperlink ref="H30" r:id="rId30" display="https://lcsc.com/product-detail/PTC-Resettable-Fuses_TECHFUSE-SMD1210-050_C70094.html"/>
-    <hyperlink ref="H31" r:id="rId31" display="https://lcsc.com/product-detail/Ferrite-Beads_Murata-Electronics-BLM18AG601SN1D_C19330.html"/>
-    <hyperlink ref="H32" r:id="rId32" display="https://www.digikey.com/short/zwbq0r"/>
-    <hyperlink ref="H33" r:id="rId33" display="https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_JST-Sales-America-BM04B-SRSS-TB-LF-SN_C160390.html"/>
-    <hyperlink ref="H34" r:id="rId34" display="https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_JST-Sales-America-B2B-PH-SM4-TB-LF-SN_C160352.html"/>
-    <hyperlink ref="H35" r:id="rId35" display="https://www.digikey.com/short/zwbq0z"/>
-    <hyperlink ref="H36" r:id="rId36" display="https://lcsc.com/product-detail/RF-Connectors-Coaxial-Connectors_HRS-Hirose-U-FL-R-SMT-1-10_C88373.html"/>
-    <hyperlink ref="H37" r:id="rId37" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_Ckmtw-Shenzhen-Cankemeng-C124418_C124418.html"/>
-    <hyperlink ref="H38" r:id="rId38" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_BOOMELE-Boom-Precision-Elec-1-27mm-1-2P_C703015.html"/>
-    <hyperlink ref="H39" r:id="rId39" display="https://lcsc.com/product-detail/Power-Inductors_TAI-TECH-HPC4012TF-2R2M_C357047.html"/>
-    <hyperlink ref="H40" r:id="rId40" display="https://lcsc.com/product-detail/Ferrite-Beads_Murata-Electronics-BLM15HG102SN1D_C76889.html"/>
-    <hyperlink ref="H41" r:id="rId41" display="https://www.digikey.com/short/zwbq90"/>
-    <hyperlink ref="H42" r:id="rId42" display="https://www.digikey.com/short/zwbq9f"/>
-    <hyperlink ref="H43" r:id="rId43" display="https://www.digikey.nl/short/zvtwq8"/>
-    <hyperlink ref="H44" r:id="rId44" display="https://lcsc.com/product-detail/Inductors-SMD_Murata-Electronics-LQW15AN4N3G80D_C412333.html"/>
+    <hyperlink ref="H19" r:id="rId19" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN1R3_C327229.html"/>
+    <hyperlink ref="H20" r:id="rId20" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R7BB102_C189467.html"/>
+    <hyperlink ref="H21" r:id="rId21" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN3R3_C327287.html"/>
+    <hyperlink ref="H22" r:id="rId22" display="https://lcsc.com/product-detail/Others_Taiyo-Yuden_JMK107ABJ106KA-T_Taiyo-Yuden-JMK107ABJ106KA-T_C319196.html"/>
+    <hyperlink ref="H23" r:id="rId23" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL05A105KQ5NNNC_C107372.html"/>
+    <hyperlink ref="H24" r:id="rId24" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R7BB104_C60474.html"/>
+    <hyperlink ref="H25" r:id="rId25" display="https://lcsc.com/product-detail/TVS_Nexperia-PESD5V0S1BA-115_C19224.html"/>
+    <hyperlink ref="H26" r:id="rId26" display="https://lcsc.com/product-detail/Switching-Diode_Diodes-Incorporated-1N4148WSF-7_C119617.html"/>
+    <hyperlink ref="H27" r:id="rId27" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Foshan-NationStar-Optoelectronics-FM-B2020RGBA-HG_C108793.html"/>
+    <hyperlink ref="H28" r:id="rId28" display="https://lcsc.com/product-detail/TVS_Leiditech-ESD9D5V_C384848.html"/>
+    <hyperlink ref="H29" r:id="rId29" display="https://lcsc.com/product-detail/PTC-Resettable-Fuses_Littelfuse-1210L150-16WR_C207048.html"/>
+    <hyperlink ref="H30" r:id="rId30" display="https://lcsc.com/product-detail/Ferrite-Beads_Murata-Electronics-BLM18AG601SN1D_C19330.html"/>
+    <hyperlink ref="H31" r:id="rId31" display="https://www.digikey.com/short/zwbq0r"/>
+    <hyperlink ref="H32" r:id="rId32" display="https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_JST-Sales-America-BM04B-SRSS-TB-LF-SN_C160390.html"/>
+    <hyperlink ref="H33" r:id="rId33" display="https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_JST-Sales-America-B2B-PH-SM4-TB-LF-SN_C160352.html"/>
+    <hyperlink ref="H34" r:id="rId34" display="https://www.digikey.com/short/zwbq0z"/>
+    <hyperlink ref="H35" r:id="rId35" display="https://lcsc.com/product-detail/RF-Connectors-Coaxial-Connectors_HRS-Hirose-U-FL-R-SMT-1-10_C88373.html"/>
+    <hyperlink ref="H36" r:id="rId36" display="https://www.aliexpress.com/item/622209657.html?spm=a2g0o.cart.0.0.5c1d3c00KRaXyV&amp;mp=1"/>
+    <hyperlink ref="H37" r:id="rId37" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_BOOMELE-Boom-Precision-Elec-1-27mm-1-2P_C703015.html"/>
+    <hyperlink ref="H38" r:id="rId38" display="https://lcsc.com/product-detail/Power-Inductors_TAI-TECH-HPC4012TF-2R2M_C357047.html"/>
+    <hyperlink ref="H39" r:id="rId39" display="https://lcsc.com/product-detail/Ferrite-Beads_Murata-Electronics-BLM15HG102SN1D_C76889.html"/>
+    <hyperlink ref="H40" r:id="rId40" display="https://www.digikey.com/short/zwbq90"/>
+    <hyperlink ref="H41" r:id="rId41" display="https://www.digikey.com/short/zwbq9f"/>
+    <hyperlink ref="H42" r:id="rId42" display="https://www.digikey.com/en/products/detail/LQW15AN27NG00D/490-6792-1-ND/3845989?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=usd&amp;utm_source=octopart"/>
+    <hyperlink ref="H43" r:id="rId43" display="https://www.digikey.com/en/products/detail/murata-electronics/LQW15AN6N5G80D/4905966?s=N4IgTCBcDaIDIEUDqBGArAQQHIDYtoHEAOABhAF0BfIA"/>
+    <hyperlink ref="H44" r:id="rId44" display="https://www.digikey.com/en/products/detail/murata-electronics/LQW15AN8N0G80D/4422141?s=N4IgTCBcDaIDIEUDqBGArAQQHIA4sAYBxHfEAXQF8g"/>
     <hyperlink ref="H45" r:id="rId45" display="https://lcsc.com/product-detail/Inductors-SMD_Murata-Electronics-LQW15AN3N6C10D_C408158.html"/>
     <hyperlink ref="H46" r:id="rId46" display="https://www.digikey.com/short/zwbqfq"/>
     <hyperlink ref="H47" r:id="rId47" display="https://lcsc.com/product-detail/Inductors-SMD_Murata-Electronics-LQW15AN11NG00D_C113109.html"/>
@@ -5203,8 +5524,8 @@
     <hyperlink ref="H49" r:id="rId49" display="https://lcsc.com/product-detail/Inductors-SMD_Murata-Electronics-LQW15AN3N0B00D_C269824.html"/>
     <hyperlink ref="H50" r:id="rId50" display="https://www.digikey.com/short/zwbq2m"/>
     <hyperlink ref="H51" r:id="rId51" display="https://lcsc.com/product-detail/Buzzers_Jiangsu-Huaneng-Elec-MLT-7525_C95299.html"/>
-    <hyperlink ref="H52" r:id="rId52" display="https://lcsc.com/product-detail/MOSFET_CET-Chino-Excel-Tech-CEN2321A_C180870.html"/>
-    <hyperlink ref="H53" r:id="rId53" display="https://lcsc.com/product-detail/Transistors-NPN-PNP_Changjiang-Electronics-Tech-CJ-S9013W_C37634.html"/>
+    <hyperlink ref="H52" r:id="rId52" display="https://lcsc.com/product-detail/MOSFET_Nexperia-PMV32UP-215_C282569.html"/>
+    <hyperlink ref="H53" r:id="rId53" display="https://lcsc.com/product-detail/Transistors-NPN-PNP_Nexperia-PMST4401-115_C454963.html"/>
     <hyperlink ref="H54" r:id="rId54" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-AC0402JR-0710KL_C144731.html"/>
     <hyperlink ref="H56" r:id="rId55" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_1KR-1001-1_C106235.html"/>
     <hyperlink ref="H57" r:id="rId56" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-AC0402FR-074K7L_C174364.html"/>
@@ -5219,13 +5540,13 @@
     <hyperlink ref="H66" r:id="rId65" display="https://www.ti.com/store/ti/en/p/product/?p=TPS22917DBVR"/>
     <hyperlink ref="H67" r:id="rId66" display="https://lcsc.com/product-detail/Temperature-Humidity-Sensors_Sensirion-SHTC3_C194656.html"/>
     <hyperlink ref="H68" r:id="rId67" display="https://www.microchipdirect.com/product/ATECC608A-TNGLORAU-C?productLoaded=true"/>
-    <hyperlink ref="H69" r:id="rId68" display="https://www.ti.com/store/ti/en/p/product/?p=TPS3839G25DBZR&amp;HQS=OCB-tistore-null-storeinv-invf-store-octopart-wwe"/>
+    <hyperlink ref="H69" r:id="rId68" display="https://www.digikey.de/product-detail/en/TPS3839G18DBZT/296-39391-1-ND/5143342?itemSeq=363776395"/>
     <hyperlink ref="H70" r:id="rId69" display="https://eu.mouser.com/ProductDetail/Ricoh-Electronic-Devices-Company/RP605Z283B-E2-F?qs=%2Fha2pyFadujfkekTwsRQpQaCcXRCnGubiPAekIe2V2q%252BPlq4yt9zFJnKPMHL8r%252Bf&amp;utm_source=octopart&amp;utm_medium=aggregator&amp;utm_campaign=848-RP605Z283B-E2-F&amp;utm_content=Ricoh+Electronics"/>
     <hyperlink ref="H71" r:id="rId70" location="sample-buy" display="https://www.st.com/content/st_com/en/products/microcontrollers-microprocessors/stm32-32-bit-arm-cortex-mcus/stm32-wireless-mcus/stm32wl-series/stm32wlex/stm32wle5cc.html#sample-buy"/>
     <hyperlink ref="H72" r:id="rId71" display="https://www.ti.com/store/ti/en/p/product/?p=TS3A5223RSWR"/>
     <hyperlink ref="H74" r:id="rId72" display="https://www.digikey.com/short/zwbqjc"/>
     <hyperlink ref="H75" r:id="rId73" display="https://lcsc.com/product-detail/Motion-Sensors-Accelerometers_STMicroelectronics-LIS2DH12TR_C110926.html"/>
-    <hyperlink ref="H76" r:id="rId74" display="https://www.digikey.com/short/z0b1h8"/>
+    <hyperlink ref="H76" r:id="rId74" display="https://www.digikey.de/product-detail/en/TG2520SMN+32.0000M-MCGNNM3/114-TG2520SMN32.0000M-MCGNNM3TR-ND/13151954?itemSeq=363783209 "/>
     <hyperlink ref="H77" r:id="rId75" display="https://lcsc.com/product-detail/SMD-Crystal-Resonators_Seiko-Epson_X1A000061002100_Seiko-Epson-X1A000061002100_C255767.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Hardware/fab/bom/pcb-stm32wl.xlsx
+++ b/Hardware/fab/bom/pcb-stm32wl.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/georgy_aleksandrov_arrow_com/Documents/WORK/Project/TheThingsIndustries/fork/generic-node-se/Hardware/fab/bom/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_251811D8F9B0DF82B6087B455C2EE02B9965C1E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E52F3EE-BD8D-4F16-892D-271E2F05412C}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="generic_node" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="generic_node" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -20,12 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="354">
-  <si>
-    <t xml:space="preserve">Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="354">
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
   <si>
     <t xml:space="preserve"> Quantity</t>
@@ -46,718 +62,580 @@
     <t xml:space="preserve"> URL</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes</t>
+    <t>Notes</t>
   </si>
   <si>
     <t xml:space="preserve">AE1 </t>
   </si>
   <si>
-    <t xml:space="preserve">NN02-201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:Antenna_Fractus_NN02-201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/zdc4q9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.richardsonrfpd.com/Products/Product/NN02-201</t>
+    <t>NN02-201</t>
+  </si>
+  <si>
+    <t>node-lib-v1:Antenna_Fractus_NN02-201</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>https://www.richardsonrfpd.com/Products/Product/NN02-201</t>
   </si>
   <si>
     <t xml:space="preserve">C12 </t>
   </si>
   <si>
-    <t xml:space="preserve">22uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603MRX5R5BB226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMK107BBJ226MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitor_SMD:C_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_22uF-226-20-6-3V_C109448.html</t>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>CC0603MRX5R5BB226</t>
+  </si>
+  <si>
+    <t>JMK107BBJ226MA</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
     <t xml:space="preserve">C13 C15 C27 </t>
   </si>
   <si>
-    <t xml:space="preserve">4.7uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL10A475KO8NNNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1608X5R1C475K080AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10A475KO8NNNC_4-7uF-475-10-16V_C19666.html</t>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>CL10A475KO8NNNC</t>
+  </si>
+  <si>
+    <t>C1608X5R1C475K080AC</t>
   </si>
   <si>
     <t xml:space="preserve">C34 </t>
   </si>
   <si>
-    <t xml:space="preserve">10nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402KRX7R7BB103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitor_SMD:C_0402_1005Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R7BB103_C327009.html</t>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R7BB103</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
     <t xml:space="preserve">C23 </t>
   </si>
   <si>
-    <t xml:space="preserve">47pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402JRNPO9BN470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402JRNPO9BN470_C60137.html</t>
+    <t>47pF</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN470</t>
   </si>
   <si>
     <t xml:space="preserve">C25 </t>
   </si>
   <si>
-    <t xml:space="preserve">47nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402KRX7R8BB473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R8BB473_C107020.html</t>
+    <t>47nF</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R8BB473</t>
   </si>
   <si>
     <t xml:space="preserve">C26 </t>
   </si>
   <si>
-    <t xml:space="preserve">68pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402JRNPO9BN680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402JRNPO9BN680_C107009.html</t>
+    <t>68pF</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN680</t>
   </si>
   <si>
     <t xml:space="preserve">C28 </t>
   </si>
   <si>
-    <t xml:space="preserve">470nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603KRX7R7BB474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0603KRX7R7BB474_C106851.html</t>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R7BB474</t>
   </si>
   <si>
     <t xml:space="preserve">C30 C37 C44 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.7pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402BRNPO9BN2R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN2R7_C326937.html</t>
+    <t>2.7pF</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN2R7</t>
   </si>
   <si>
     <t xml:space="preserve">C31 </t>
   </si>
   <si>
-    <t xml:space="preserve">3.6pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0402N3R6B500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402BRNPO9BN3R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Walsin-Tech-Corp-0402N3R6B500_C123485.html</t>
+    <t>3.6pF</t>
+  </si>
+  <si>
+    <t>0402N3R6B500</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN3R6</t>
   </si>
   <si>
     <t xml:space="preserve">C19 C21 C22 C32 C33 C41 C42 </t>
   </si>
   <si>
-    <t xml:space="preserve">33pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402GRNPO9BN330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402GRNPO9BN330_C325461.html</t>
+    <t>33pF</t>
+  </si>
+  <si>
+    <t>CC0402GRNPO9BN330</t>
   </si>
   <si>
     <t xml:space="preserve">C35 C46 C49 </t>
   </si>
   <si>
-    <t xml:space="preserve">5.6pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402BRNPO9BN5R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN5R6_C505468.html</t>
+    <t>5.6pF</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN5R6</t>
   </si>
   <si>
     <t xml:space="preserve">C36 </t>
   </si>
   <si>
-    <t xml:space="preserve">6.8pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402BRNPO9BN6R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN6R8_C327291.html</t>
+    <t>6.8pF</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN6R8</t>
   </si>
   <si>
     <t xml:space="preserve">C38 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.4pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402BRNPO9BN2R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN2R4_C541334.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402BRNPO9BN3R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GJM1555C1H3R3WB01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN3R3_C327287.html</t>
+    <t>2.4pF</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN2R4</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>3.3pF</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN3R3</t>
+  </si>
+  <si>
+    <t>GJM1555C1H3R3WB01</t>
   </si>
   <si>
     <t xml:space="preserve">C1 C4 C5 </t>
   </si>
   <si>
-    <t xml:space="preserve">100uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMK316ABJ107ML-T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitor_SMD:C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Taiyo-Yuden-JMK316ABJ107ML-T_C268006.html</t>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>JMK316ABJ107ML-T</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
   </si>
   <si>
     <t xml:space="preserve">C40 </t>
   </si>
   <si>
-    <t xml:space="preserve">3.9pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402BRNPO9BN3R9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN3R9_C505474.html</t>
+    <t>3.9pF</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN3R9</t>
   </si>
   <si>
     <t xml:space="preserve">C45 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.3pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402BRNPO9BN1R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN1R3_C327229.html</t>
+    <t>1.3pF</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN1R3</t>
   </si>
   <si>
     <t xml:space="preserve">C43 C47 C48 C50 </t>
   </si>
   <si>
-    <t xml:space="preserve">1nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402KRX7R7BB102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R7BB102_C189467.html</t>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R7BB102</t>
   </si>
   <si>
     <t xml:space="preserve">C2 C55 </t>
   </si>
   <si>
-    <t xml:space="preserve">DNM</t>
+    <t>DNM</t>
   </si>
   <si>
     <t xml:space="preserve">C58 </t>
   </si>
   <si>
-    <t xml:space="preserve">10uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMK107ABJ106KA-T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1608X5R0J106K080AB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Others_Taiyo-Yuden_JMK107ABJ106KA-T_Taiyo-Yuden-JMK107ABJ106KA-T_C319196.html</t>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>JMK107ABJ106KA-T</t>
+  </si>
+  <si>
+    <t>C1608X5R0J106K080AB</t>
   </si>
   <si>
     <t xml:space="preserve">C3 C6 C8 C11 </t>
   </si>
   <si>
-    <t xml:space="preserve">1uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL05A105KQ5NNNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL05A105KQ5NNNC_C107372.html</t>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>CL05A105KQ5NNNC</t>
   </si>
   <si>
     <t xml:space="preserve">C7 C9 C10 C14 C16 C17 C18 C20 C24 C29 C57 C59 C60 C61 C62 C63 C64 C65 </t>
   </si>
   <si>
-    <t xml:space="preserve">100nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0402KRX7R7BB104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R7BB104_C60474.html</t>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R7BB104</t>
   </si>
   <si>
     <t xml:space="preserve">D1 </t>
   </si>
   <si>
-    <t xml:space="preserve">PESD5V0S1BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PESD5V0S1BA,115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PESD5V0S1BA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diode_SMD:D_SOD-323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/TVS_Nexperia-PESD5V0S1BA-115_C19224.html</t>
+    <t>PESD5V0S1BA</t>
+  </si>
+  <si>
+    <t>PESD5V0S1BA,115</t>
+  </si>
+  <si>
+    <t>PESD5V0S1BA-N</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-323</t>
   </si>
   <si>
     <t xml:space="preserve">D2 </t>
   </si>
   <si>
-    <t xml:space="preserve">1N4148WSF-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diode_SMD:D_SOD-323F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Switching-Diode_Diodes-Incorporated-1N4148WSF-7_C119617.html</t>
+    <t>1N4148WSF-7</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-323F</t>
   </si>
   <si>
     <t xml:space="preserve">D3 </t>
   </si>
   <si>
-    <t xml:space="preserve">FM-B2020RGBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM-B2020RGBA-HG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_SMD:LED_Cree-PLCC4_2x2mm_CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Foshan-NationStar-Optoelectronics-FM-B2020RGBA-HG_C108793.html</t>
+    <t>FM-B2020RGBA</t>
+  </si>
+  <si>
+    <t>FM-B2020RGBA-HG</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_Cree-PLCC4_2x2mm_CW</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Foshan-NationStar-Optoelectronics-FM-B2020RGBA-HG_C108793.html</t>
   </si>
   <si>
     <t xml:space="preserve">D4 D5 </t>
   </si>
   <si>
-    <t xml:space="preserve">ESD9D5V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diode_SMD:D_SOD-923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/TVS_Leiditech-ESD9D5V_C384848.html</t>
+    <t>ESD9D5V</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-923</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/TVS_Leiditech-ESD9D5V_C384848.html</t>
   </si>
   <si>
     <t xml:space="preserve">F1 </t>
   </si>
   <si>
-    <t xml:space="preserve">16V 3A 110mΩ  PTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1210L150/16WR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuse:Fuse_1210_3225Metric_Castellated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/PTC-Resettable-Fuses_Littelfuse-1210L150-16WR_C207048.html</t>
+    <t>16V 3A 110mΩ  PTC</t>
+  </si>
+  <si>
+    <t>1210L150/16WR</t>
+  </si>
+  <si>
+    <t>Fuse:Fuse_1210_3225Metric_Castellated</t>
   </si>
   <si>
     <t xml:space="preserve">FB1 </t>
   </si>
   <si>
-    <t xml:space="preserve">600R @100MHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLM18AG601SN1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inductor_SMD:L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Ferrite-Beads_Murata-Electronics-BLM18AG601SN1D_C19330.html</t>
+    <t>600R @100MHz</t>
+  </si>
+  <si>
+    <t>BLM18AG601SN1D</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0603_1608Metric</t>
   </si>
   <si>
     <t xml:space="preserve">J1 J3 J5 J6 </t>
   </si>
   <si>
-    <t xml:space="preserve">S1001-46R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:RF_Shield_Clip_S1001-46R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.com/short/zwbq0r</t>
+    <t>S1001-46R</t>
+  </si>
+  <si>
+    <t>node-lib-v1:RF_Shield_Clip_S1001-46R</t>
   </si>
   <si>
     <t xml:space="preserve">J10 </t>
   </si>
   <si>
-    <t xml:space="preserve">Qwiic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BM04B-SRSS-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector_JST:JST_SH_BM04B-SRSS-TB_1x04-1MP_P1.00mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_JST-Sales-America-BM04B-SRSS-TB-LF-SN_C160390.html</t>
+    <t>Qwiic</t>
+  </si>
+  <si>
+    <t>BM04B-SRSS-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>Connector_JST:JST_SH_BM04B-SRSS-TB_1x04-1MP_P1.00mm_Vertical</t>
   </si>
   <si>
     <t xml:space="preserve">J2 </t>
   </si>
   <si>
-    <t xml:space="preserve">JST-PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2B-PH-SM4-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector_JST:JST_PH_B2B-PH-SM4-TB_1x02-1MP_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_JST-Sales-America-B2B-PH-SM4-TB-LF-SN_C160352.html</t>
+    <t>JST-PH</t>
+  </si>
+  <si>
+    <t>B2B-PH-SM4-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>Connector_JST:JST_PH_B2B-PH-SM4-TB_1x02-1MP_P2.00mm_Vertical</t>
   </si>
   <si>
     <t xml:space="preserve">J4 </t>
   </si>
   <si>
-    <t xml:space="preserve">RF_Shield_One_Piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMN – Custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S02-30200250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:Harwin_S02-30200250_30x20mm_GND_Pads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.com/short/zwbq0z</t>
+    <t>RF_Shield_One_Piece</t>
+  </si>
+  <si>
+    <t>DMN – Custom</t>
+  </si>
+  <si>
+    <t>S02-30200250</t>
+  </si>
+  <si>
+    <t>node-lib-v1:Harwin_S02-30200250_30x20mm_GND_Pads</t>
   </si>
   <si>
     <t xml:space="preserve">J7 </t>
   </si>
   <si>
-    <t xml:space="preserve">U.FL/iPEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.FL-R-SMT-1(10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector_Coaxial:U.FL_Hirose_U.FL-R-SMT-1_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/RF-Connectors-Coaxial-Connectors_HRS-Hirose-U-FL-R-SMT-1-10_C88373.html</t>
+    <t>U.FL/iPEX</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(10)</t>
+  </si>
+  <si>
+    <t>Connector_Coaxial:U.FL_Hirose_U.FL-R-SMT-1_Vertical</t>
   </si>
   <si>
     <t xml:space="preserve">J8 J9 </t>
   </si>
   <si>
-    <t xml:space="preserve">DEBUG / UART/I2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54mm PH3.5 7P header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector_PinSocket_2.54mm:PinSocket_1x07_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.aliexpress.com/item/622209657.html?spm=a2g0o.cart.0.0.5c1d3c00KRaXyV&amp;mp=1</t>
+    <t>DEBUG / UART/I2C</t>
+  </si>
+  <si>
+    <t>2.54mm PH3.5 7P header</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm:PinSocket_1x07_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/622209657.html?spm=a2g0o.cart.0.0.5c1d3c00KRaXyV&amp;mp=1</t>
   </si>
   <si>
     <t xml:space="preserve">JP5 </t>
   </si>
   <si>
-    <t xml:space="preserve">BOOT0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C703015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector_PinHeader_1.27mm:PinHeader_1x02_P1.27mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Pin-Header-Female-Header_BOOMELE-Boom-Precision-Elec-1-27mm-1-2P_C703015.html</t>
+    <t>BOOT0</t>
+  </si>
+  <si>
+    <t>C703015</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_1.27mm:PinHeader_1x02_P1.27mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Pin-Header-Female-Header_BOOMELE-Boom-Precision-Elec-1-27mm-1-2P_C703015.html</t>
   </si>
   <si>
     <t xml:space="preserve">L1 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.2uH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPC4012TF-2R2M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:L_HPC4012TF-2R2M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Power-Inductors_TAI-TECH-HPC4012TF-2R2M_C357047.html</t>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>HPC4012TF-2R2M</t>
+  </si>
+  <si>
+    <t>node-lib-v1:L_HPC4012TF-2R2M</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Power-Inductors_TAI-TECH-HPC4012TF-2R2M_C357047.html</t>
   </si>
   <si>
     <t xml:space="preserve">L10 </t>
   </si>
   <si>
-    <t xml:space="preserve">1400R @1GHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLM15HG102SN1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inductor_SMD:L_0402_1005Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Ferrite-Beads_Murata-Electronics-BLM15HG102SN1D_C76889.html</t>
+    <t>1400R @1GHz</t>
+  </si>
+  <si>
+    <t>BLM15HG102SN1D</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0402_1005Metric</t>
   </si>
   <si>
     <t xml:space="preserve">L11 </t>
   </si>
   <si>
-    <t xml:space="preserve">6.8nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN6N8H00D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.com/short/zwbq90</t>
+    <t>6.8nH</t>
+  </si>
+  <si>
+    <t>LQW15AN6N8H00D</t>
   </si>
   <si>
     <t xml:space="preserve">L12 </t>
   </si>
   <si>
-    <t xml:space="preserve">8.7nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN8N7H00D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.com/short/zwbq9f</t>
+    <t>8.7nH</t>
+  </si>
+  <si>
+    <t>LQW15AN8N7H00D</t>
   </si>
   <si>
     <t xml:space="preserve">L13 </t>
   </si>
   <si>
-    <t xml:space="preserve">27nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN27NG00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.com/en/products/detail/LQW15AN27NG00D/490-6792-1-ND/3845989?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=usd&amp;utm_source=octopart</t>
+    <t>27nH</t>
+  </si>
+  <si>
+    <t>LQW15AN27NG00</t>
   </si>
   <si>
     <t xml:space="preserve">L14 </t>
   </si>
   <si>
-    <t xml:space="preserve">6.5nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN6N5G80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.com/en/products/detail/murata-electronics/LQW15AN6N5G80D/4905966?s=N4IgTCBcDaIDIEUDqBGArAQQHIDYtoHEAOABhAF0BfIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN8N0G80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.com/en/products/detail/murata-electronics/LQW15AN8N0G80D/4422141?s=N4IgTCBcDaIDIEUDqBGArAQQHIA4sAYBxHfEAXQF8g</t>
+    <t>6.5nH</t>
+  </si>
+  <si>
+    <t>LQW15AN6N5G80</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>8nH</t>
+  </si>
+  <si>
+    <t>LQW15AN8N0G80</t>
   </si>
   <si>
     <t xml:space="preserve">L3 </t>
   </si>
   <si>
-    <t xml:space="preserve">3.6nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN3N6C10D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Inductors-SMD_Murata-Electronics-LQW15AN3N6C10D_C408158.html</t>
+    <t>3.6nH</t>
+  </si>
+  <si>
+    <t>LQW15AN3N6C10D</t>
   </si>
   <si>
     <t xml:space="preserve">L4 </t>
   </si>
   <si>
-    <t xml:space="preserve">15uH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLZ2012M150WT000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inductor_SMD:L_0805_2012Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.com/short/zwbqfq</t>
+    <t>15uH</t>
+  </si>
+  <si>
+    <t>MLZ2012M150WT000</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0805_2012Metric</t>
   </si>
   <si>
     <t xml:space="preserve">L5 </t>
   </si>
   <si>
-    <t xml:space="preserve">11nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN11NG00D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Inductors-SMD_Murata-Electronics-LQW15AN11NG00D_C113109.html</t>
+    <t>11nH</t>
+  </si>
+  <si>
+    <t>LQW15AN11NG00D</t>
   </si>
   <si>
     <t xml:space="preserve">L6 L7 </t>
   </si>
   <si>
-    <t xml:space="preserve">47nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN47NJ00D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.com/short/zwbq55</t>
+    <t>47nH</t>
+  </si>
+  <si>
+    <t>LQW15AN47NJ00D</t>
   </si>
   <si>
     <t xml:space="preserve">L8 </t>
   </si>
   <si>
-    <t xml:space="preserve">3nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN3N0B00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Inductors-SMD_Murata-Electronics-LQW15AN3N0B00D_C269824.html</t>
+    <t>3nH</t>
+  </si>
+  <si>
+    <t>LQW15AN3N0B00</t>
   </si>
   <si>
     <t xml:space="preserve">L2 L9 </t>
   </si>
   <si>
-    <t xml:space="preserve">3.3nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN3N3C80D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.com/short/zwbq2m</t>
+    <t>3.3nH</t>
+  </si>
+  <si>
+    <t>LQW15AN3N3C80D</t>
   </si>
   <si>
     <t xml:space="preserve">PZ1 </t>
   </si>
   <si>
-    <t xml:space="preserve">MLT-7525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:Buzzer_MLT-7525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Buzzers_Jiangsu-Huaneng-Elec-MLT-7525_C95299.html</t>
+    <t>MLT-7525</t>
+  </si>
+  <si>
+    <t>node-lib-v1:Buzzer_MLT-7525</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Buzzers_Jiangsu-Huaneng-Elec-MLT-7525_C95299.html</t>
   </si>
   <si>
     <t xml:space="preserve">Q1 </t>
   </si>
   <si>
-    <t xml:space="preserve">PMV32UP,215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/MOSFET_Nexperia-PMV32UP-215_C282569.html</t>
+    <t>PMV32UP,215</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23</t>
   </si>
   <si>
     <t xml:space="preserve">Q2 </t>
   </si>
   <si>
-    <t xml:space="preserve">PMST4401,115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_TO_SOT_SMD:SOT-323_SC-70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Transistors-NPN-PNP_Nexperia-PMST4401-115_C454963.html</t>
+    <t>PMST4401,115</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-323_SC-70</t>
   </si>
   <si>
     <t xml:space="preserve">R13 R20 </t>
   </si>
   <si>
-    <t xml:space="preserve">10K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC0402JR-0710KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistor_SMD:R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-AC0402JR-0710KL_C144731.html</t>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>AC0402JR-0710KL</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0402_1005Metric</t>
   </si>
   <si>
     <t xml:space="preserve">R10 R11 R12 </t>
@@ -766,354 +644,472 @@
     <t xml:space="preserve">R16 R21 </t>
   </si>
   <si>
-    <t xml:space="preserve">1K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0402FR-071KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_1KR-1001-1_C106235.html</t>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>RC0402FR-071KL</t>
   </si>
   <si>
     <t xml:space="preserve">R14 R15 R17 R18 </t>
   </si>
   <si>
-    <t xml:space="preserve">4K7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC0402FR-074K7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-AC0402FR-074K7L_C174364.html</t>
+    <t>4K7</t>
+  </si>
+  <si>
+    <t>AC0402FR-074K7L</t>
   </si>
   <si>
     <t xml:space="preserve">R19 </t>
   </si>
   <si>
-    <t xml:space="preserve">33R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC0402JR-0733RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/_AC0402JR-0733RL_C144713.html</t>
+    <t>33R</t>
+  </si>
+  <si>
+    <t>AC0402JR-0733RL</t>
   </si>
   <si>
     <t xml:space="preserve">R2 R3 R4 </t>
   </si>
   <si>
-    <t xml:space="preserve">100K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0402FR-07100KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0402FR-07100KL_C60491.html</t>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100KL</t>
   </si>
   <si>
     <t xml:space="preserve">R22 R23 </t>
   </si>
   <si>
-    <t xml:space="preserve">330R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC0402FR-07330RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-AC0402FR-07330RL_C226996.html</t>
+    <t>330R</t>
+  </si>
+  <si>
+    <t>AC0402FR-07330RL</t>
   </si>
   <si>
     <t xml:space="preserve">R5 </t>
   </si>
   <si>
-    <t xml:space="preserve">220R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0402FR-07220RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0402FR-07220RL_C112291.html</t>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>RC0402FR-07220RL</t>
   </si>
   <si>
     <t xml:space="preserve">R6 R7 R8 R24 </t>
   </si>
   <si>
-    <t xml:space="preserve">100R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0402FR-07100RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0402FR-07100RL_C106232.html</t>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100RL</t>
   </si>
   <si>
     <t xml:space="preserve">R1 R9 </t>
   </si>
   <si>
-    <t xml:space="preserve">0R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0402FR-070RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0402FR-070RL_C106231.html</t>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>RC0402FR-070RL</t>
   </si>
   <si>
     <t xml:space="preserve">SW1 </t>
   </si>
   <si>
-    <t xml:space="preserve">USR_BTN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSC721GLFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:PushButton_KSC721GLFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Tactile-Switches_C-K-KSC721GLFS_C221764.html</t>
+    <t>USR_BTN</t>
+  </si>
+  <si>
+    <t>KSC721GLFS</t>
+  </si>
+  <si>
+    <t>node-lib-v1:PushButton_KSC721GLFS</t>
   </si>
   <si>
     <t xml:space="preserve">SW2 </t>
   </si>
   <si>
-    <t xml:space="preserve">RESET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKSHABE010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:SW_SPST_SKSHABE010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Tactile-Switches_ALPS-Electric-SKSHABE010_C255507.html</t>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>SKSHABE010</t>
+  </si>
+  <si>
+    <t>node-lib-v1:SW_SPST_SKSHABE010</t>
   </si>
   <si>
     <t xml:space="preserve">U1 U3 </t>
   </si>
   <si>
-    <t xml:space="preserve">TPS22917DBV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS22917DBVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ti.com/store/ti/en/p/product/?p=TPS22917DBVR</t>
+    <t>TPS22917DBV</t>
+  </si>
+  <si>
+    <t>TPS22917DBVR</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-6</t>
   </si>
   <si>
     <t xml:space="preserve">U10 </t>
   </si>
   <si>
-    <t xml:space="preserve">SHTC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:Sensirion_DFN-4-1EP_2x2mm_P1mm_EP0.7x1.6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Temperature-Humidity-Sensors_Sensirion-SHTC3_C194656.html</t>
+    <t>SHTC3</t>
+  </si>
+  <si>
+    <t>node-lib-v1:Sensirion_DFN-4-1EP_2x2mm_P1mm_EP0.7x1.6mm</t>
   </si>
   <si>
     <t xml:space="preserve">U11 </t>
   </si>
   <si>
-    <t xml:space="preserve">ATECC608B-TNGLORAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATECC608B-TNGLORAU-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_DFN_QFN:DFN-8-1EP_3x2mm_P0.5mm_EP1.3x1.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.microchipdirect.com/product/ATECC608A-TNGLORAU-C?productLoaded=true</t>
+    <t>ATECC608B-TNGLORAU</t>
+  </si>
+  <si>
+    <t>ATECC608B-TNGLORAU-C</t>
+  </si>
+  <si>
+    <t>Package_DFN_QFN:DFN-8-1EP_3x2mm_P0.5mm_EP1.3x1.5mm</t>
   </si>
   <si>
     <t xml:space="preserve">U2 </t>
   </si>
   <si>
-    <t xml:space="preserve">TPS3839G18DBZT‎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.de/product-detail/en/TPS3839G18DBZT/296-39391-1-ND/5143342?itemSeq=363776395</t>
+    <t>TPS3839G18DBZT‎</t>
   </si>
   <si>
     <t xml:space="preserve">U4 </t>
   </si>
   <si>
-    <t xml:space="preserve">RP605Z283B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RP605Z283B-E2-F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:WLCSP-20-P3_1.994x1.609mm_Layout5x4_P0.4mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eu.mouser.com/ProductDetail/Ricoh-Electronic-Devices-Company/RP605Z283B-E2-F?qs=%2Fha2pyFadujfkekTwsRQpQaCcXRCnGubiPAekIe2V2q%252BPlq4yt9zFJnKPMHL8r%252Bf&amp;utm_source=octopart&amp;utm_medium=aggregator&amp;utm_campaign=848-RP605Z283B-E2-F&amp;utm_content=Ricoh+Electronics</t>
+    <t>RP605Z283B</t>
+  </si>
+  <si>
+    <t>RP605Z283B-E2-F</t>
+  </si>
+  <si>
+    <t>node-lib-v1:WLCSP-20-P3_1.994x1.609mm_Layout5x4_P0.4mm</t>
   </si>
   <si>
     <t xml:space="preserve">U5 </t>
   </si>
   <si>
-    <t xml:space="preserve">STM32WL55CCU6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_DFN_QFN:QFN-48-1EP_7x7mm_P0.5mm_EP5.45x5.45mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.st.com/content/st_com/en/products/microcontrollers-microprocessors/stm32-32-bit-arm-cortex-mcus/stm32-wireless-mcus/stm32wl-series/stm32wlex/stm32wle5cc.html#sample-buy</t>
+    <t>STM32WL55CCU6</t>
+  </si>
+  <si>
+    <t>Package_DFN_QFN:QFN-48-1EP_7x7mm_P0.5mm_EP5.45x5.45mm</t>
   </si>
   <si>
     <t xml:space="preserve">U6 </t>
   </si>
   <si>
-    <t xml:space="preserve">TS3A5223RSWR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backordered – not arrived yet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_DFN_QFN:UQFN-10_1.4x1.8mm_P0.4mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ti.com/store/ti/en/p/product/?p=TS3A5223RSWR</t>
+    <t>TS3A5223RSWR</t>
+  </si>
+  <si>
+    <t>Backordered – not arrived yet</t>
+  </si>
+  <si>
+    <t>Package_DFN_QFN:UQFN-10_1.4x1.8mm_P0.4mm</t>
   </si>
   <si>
     <t xml:space="preserve">U7 </t>
   </si>
   <si>
-    <t xml:space="preserve">BGS13S4N9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGS13S4N9E6327XTSA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:RFSW_BGS13S4N9E6327XTSA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://nl.farnell.com/infineon/bgs13s4n9e6327xtsa1/rf-switch-3ghz-40-to-85deg-c/dp/2947801?CMP=GRHB-OCTOPART</t>
+    <t>BGS13S4N9</t>
+  </si>
+  <si>
+    <t>BGS13S4N9E6327XTSA1</t>
+  </si>
+  <si>
+    <t>node-lib-v1:RFSW_BGS13S4N9E6327XTSA1</t>
   </si>
   <si>
     <t xml:space="preserve">U8 </t>
   </si>
   <si>
-    <t xml:space="preserve">MX25R1635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX25R1635FZUIL0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:FLASH_UFDFN-8-MX25R1635F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.com/short/zwbqjc</t>
+    <t>MX25R1635</t>
+  </si>
+  <si>
+    <t>MX25R1635FZUIL0</t>
+  </si>
+  <si>
+    <t>node-lib-v1:FLASH_UFDFN-8-MX25R1635F</t>
   </si>
   <si>
     <t xml:space="preserve">U9 </t>
   </si>
   <si>
-    <t xml:space="preserve">LIS2DH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIS2DH12TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_LGA:LGA-12_2x2mm_P0.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Motion-Sensors-Accelerometers_STMicroelectronics-LIS2DH12TR_C110926.html</t>
+    <t>LIS2DH12</t>
+  </si>
+  <si>
+    <t>LIS2DH12TR</t>
+  </si>
+  <si>
+    <t>Package_LGA:LGA-12_2x2mm_P0.5mm</t>
   </si>
   <si>
     <t xml:space="preserve">X1 </t>
   </si>
   <si>
-    <t xml:space="preserve">32MHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎TG2520SMN 32.0000M-MCGNNM3‎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal:Crystal_SMD_Abracon_ABM10-4Pin_2.5x2.0mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.de/product-detail/en/TG2520SMN+32.0000M-MCGNNM3/114-TG2520SMN32.0000M-MCGNNM3TR-ND/13151954?itemSeq=363783209 </t>
+    <t>32MHz</t>
+  </si>
+  <si>
+    <t>‎TG2520SMN 32.0000M-MCGNNM3‎</t>
+  </si>
+  <si>
+    <t>Crystal:Crystal_SMD_Abracon_ABM10-4Pin_2.5x2.0mm</t>
   </si>
   <si>
     <t xml:space="preserve">Y1 </t>
   </si>
   <si>
-    <t xml:space="preserve">32.768KHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X1A000061002100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:Crystal_SMD_NX2012SA_32.768KHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/SMD-Crystal-Resonators_Seiko-Epson_X1A000061002100_Seiko-Epson-X1A000061002100_C255767.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design version:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/05/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KiCAD v5.1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Component Count:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique Component Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend</t>
+    <t>32.768KHz</t>
+  </si>
+  <si>
+    <t>X1A000061002100</t>
+  </si>
+  <si>
+    <t>node-lib-v1:Crystal_SMD_NX2012SA_32.768KHz</t>
+  </si>
+  <si>
+    <t>Design version:</t>
+  </si>
+  <si>
+    <t>1.1b</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>24/05/2021</t>
+  </si>
+  <si>
+    <t>Tool:</t>
+  </si>
+  <si>
+    <t>KiCAD v5.1.10</t>
+  </si>
+  <si>
+    <t>Total Component Count:</t>
+  </si>
+  <si>
+    <t>Unique Component Count</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>https://www.verical.com/pd/ignion-antenna-nn02-201-8417659</t>
+  </si>
+  <si>
+    <t>CC0603MRX5R5BB226 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CL10A475KO8NNNC by Samsung Electro-Mechanics | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R7BB103 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN470 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R8BB473 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN680 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R7BB474 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN2R7 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402GRNPO9BN330 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN5R6 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN6R8 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN2R4 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN3R3 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN3R9 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402BRNPO9BN1R3 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R7BB102 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CL05A105KQ5NNNC by Samsung Electro-Mechanics | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R7BB104 by Yageo | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>PESD5V0S1BA,115 by Nexperia | ESD Suppressors | Arrow.com</t>
+  </si>
+  <si>
+    <t>1N4148WSF-7 by Diodes Incorporated | Rectifiers | Arrow.com</t>
+  </si>
+  <si>
+    <t>1210L150/16WR by Littelfuse | PTC Resettable Fuses | Arrow.com</t>
+  </si>
+  <si>
+    <t>BLM18AG601SN1D by Murata Manufacturing | Ferrite Beads | Arrow.com</t>
+  </si>
+  <si>
+    <t>S1001-46R | Arrow.com</t>
+  </si>
+  <si>
+    <t>BM04B-SRSS-TB(LFSN) by J.S.T.MFG.CO.,LTD | Connector Headers and PCB Receptacles | Arrow.com</t>
+  </si>
+  <si>
+    <t>B2B-PH-SM4-TB (LF)(SN) by J.S.T.MFG.CO.,LTD | Connector Headers and PCB Receptacles | Arrow.com</t>
+  </si>
+  <si>
+    <t>S02-30200250 | Arrow.com</t>
+  </si>
+  <si>
+    <t>BLM15HG102SN1D by Murata Manufacturing | Ferrite Beads | Arrow.com</t>
+  </si>
+  <si>
+    <t>LQW15AN6N8H00D by Murata Manufacturing | Inductor Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>LQW15AN8N7H00D by Murata Manufacturing | Inductor Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>LQW15AN27NG00D by Murata Manufacturing | Inductor Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>LQW15AN6N5G80D by Murata Manufacturing | Inductor Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>LQW15AN8N0G80D by Murata Manufacturing | Inductor Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>LQW15AN3N6C10D by Murata Manufacturing | Inductor Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>MLZ2012M150WT000 by TDK | Inductor Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>LQW15AN11NG00D by Murata Manufacturing | Inductor Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>LQW15AN47NJ00D by Murata Manufacturing | Inductor Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>LQW15AN3N0B00D by Murata Manufacturing | Inductor Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>LQW15AN3N3C80D by Murata Manufacturing | Inductor Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>PMV32UP,215 by Nexperia | MOSFETs | Arrow.com</t>
+  </si>
+  <si>
+    <t>PMST4401,115 by Nexperia | GP BJT | Arrow.com</t>
+  </si>
+  <si>
+    <t>AC0402JR-0710KL by Yageo | Resistor Fixed Single-Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>RC0402FR-071KL by Yageo | Resistor Fixed Single-Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>AC0402FR-074K7L Yageo | Resistor Fixed Single-Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>AC0402JR-0733RL by Yageo | Resistor Fixed Single-Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>RC0402FR-07 100KL Yageo | Resistor Fixed Single-Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>AC0402FR-07330RL by Yageo | Resistor Fixed Single-Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>RC0402FR-07220RL Yageo | Resistor Fixed Single-Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100RL by Yageo | Resistor Fixed Single-Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>RC0402FR-070RL by Yageo | Resistor Fixed Single-Surface Mount | Arrow.com</t>
+  </si>
+  <si>
+    <t>KSC721GLFSB by C&amp;K | Switch Tactile | Arrow.com</t>
+  </si>
+  <si>
+    <t>TPS22917DBVR by Texas Instruments | Power Switches | Arrow.com</t>
+  </si>
+  <si>
+    <t>SHTC3-TR-10KS by Sensirion AG | Unclassified | Arrow.com</t>
+  </si>
+  <si>
+    <t>ATECC608B-TNGLORAU-G by Microchip Technology | Unclassified | Arrow.com</t>
+  </si>
+  <si>
+    <t>TPS3839G18DBZT by Texas Instruments | Supervisory Circuits | Arrow.com</t>
+  </si>
+  <si>
+    <t>RP605Z283B-E2-F by Nisshinbo Micro Devices Inc | Unclassified | Arrow.com</t>
+  </si>
+  <si>
+    <t>STM32WL55CCU6 by STMicroelectronics | | Arrow.com</t>
+  </si>
+  <si>
+    <t>TS3A5223RSWR by Texas Instruments | Analog Switch Multiplexers | Arrow.com</t>
+  </si>
+  <si>
+    <t>BGS13S4N9E6327XTSA1 by Infineon Technologies AG | RF Switches | Arrow.com</t>
+  </si>
+  <si>
+    <t>MX25R1635FZUIL0 TR by Macronix International | Flash | Arrow.com</t>
+  </si>
+  <si>
+    <t>LIS2DH12TR | Accelerometer by STMicroelectronics | Accelerometers | Arrow.com</t>
+  </si>
+  <si>
+    <t>TG2520SMN 32.0000M-MCGNNM3 by Epson America, Inc | Controlled Oscillators | Arrow.com</t>
+  </si>
+  <si>
+    <t>https://www.arrow.com/en/products/fc-12m32.7680ka-a5/epson-electronics-america</t>
+  </si>
+  <si>
+    <t>0402N3R6B500CT by Walsin Technology | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>JMK316ABJ107ML-T by Taiyo Yuden | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>JMK107ABJ106KA-T by Taiyo Yuden | Capacitor Ceramic Multilayer | Arrow.com</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(10) HIROSE ELECTRIC - RF Connector | Verical</t>
+  </si>
+  <si>
+    <t>SKSHABE010 by ALPS ALPINE CO., LTD | Switch Tactile | Arrow.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1122,7 +1118,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1135,7 +1131,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1149,21 +1145,22 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <u/>
       <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1182,9 +1179,15 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1192,201 +1195,131 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1445,39 +1378,346 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:BL1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BL103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="39.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="97.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="10" style="4" width="11.52"/>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="97.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" customWidth="1"/>
+    <col min="10" max="64" width="11.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:64" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1561,14 +1801,14 @@
       <c r="BK1" s="7"/>
       <c r="BL1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1580,521 +1820,521 @@
       <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>12</v>
+      <c r="H2" s="40" t="s">
+        <v>286</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="9">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="9">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="B21" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="11" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>76</v>
+        <v>26</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>299</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -2152,322 +2392,322 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="9">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:64" ht="96.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="9">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="E27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="9">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="D29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="9">
         <v>4</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="96.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="9" t="n">
+      <c r="D31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="9">
         <v>1</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="9" t="n">
+      <c r="D32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="9">
         <v>1</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>151</v>
+      <c r="H33" s="40" t="s">
+        <v>311</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -2525,33 +2765,33 @@
       <c r="BK33" s="10"/>
       <c r="BL33" s="10"/>
     </row>
-    <row r="34" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="n">
+    <row r="34" spans="1:64" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="13" t="n">
+        <v>123</v>
+      </c>
+      <c r="C34" s="13">
         <v>1</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>157</v>
+        <v>127</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>312</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
@@ -2609,59 +2849,59 @@
       <c r="BK34" s="17"/>
       <c r="BL34" s="17"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="9" t="n">
+        <v>128</v>
+      </c>
+      <c r="C35" s="9">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>162</v>
+        <v>131</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>352</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="20" t="n">
+        <v>132</v>
+      </c>
+      <c r="C36" s="20">
         <v>2</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>168</v>
+        <v>136</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
@@ -2719,33 +2959,33 @@
       <c r="BK36" s="22"/>
       <c r="BL36" s="22"/>
     </row>
-    <row r="37" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18" t="n">
+    <row r="37" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="20" t="n">
+        <v>138</v>
+      </c>
+      <c r="C37" s="20">
         <v>1</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>173</v>
+        <v>141</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>142</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
@@ -2803,30 +3043,30 @@
       <c r="BK37" s="24"/>
       <c r="BL37" s="24"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="9" t="n">
+        <v>143</v>
+      </c>
+      <c r="C38" s="9">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>178</v>
+        <v>146</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>147</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -2884,30 +3124,30 @@
       <c r="BK38" s="10"/>
       <c r="BL38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="9" t="n">
+        <v>148</v>
+      </c>
+      <c r="C39" s="9">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>183</v>
+        <v>151</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>313</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
@@ -2965,83 +3205,83 @@
       <c r="BK39" s="10"/>
       <c r="BL39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" s="9" t="n">
+        <v>152</v>
+      </c>
+      <c r="C40" s="9">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>187</v>
+        <v>151</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>314</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="9" t="n">
+        <v>155</v>
+      </c>
+      <c r="C41" s="9">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>191</v>
+        <v>151</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>315</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="20" t="n">
+        <v>158</v>
+      </c>
+      <c r="C42" s="20">
         <v>1</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>195</v>
+        <v>151</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>316</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
@@ -3099,31 +3339,31 @@
       <c r="BK42" s="24"/>
       <c r="BL42" s="24"/>
     </row>
-    <row r="43" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="n">
+    <row r="43" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C43" s="20" t="n">
+        <v>161</v>
+      </c>
+      <c r="C43" s="20">
         <v>1</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>199</v>
+        <v>151</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>317</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
@@ -3181,28 +3421,28 @@
       <c r="BK43" s="24"/>
       <c r="BL43" s="24"/>
     </row>
-    <row r="44" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18" t="n">
+    <row r="44" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="20" t="n">
+        <v>164</v>
+      </c>
+      <c r="C44" s="20">
         <v>1</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>203</v>
+        <v>151</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>318</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="24"/>
@@ -3261,289 +3501,287 @@
       <c r="BK44" s="24"/>
       <c r="BL44" s="24"/>
     </row>
-    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="9" t="n">
+        <v>167</v>
+      </c>
+      <c r="C45" s="9">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="9">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C46" s="9" t="n">
+      <c r="G49" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="9">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="9">
         <v>1</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C47" s="9" t="n">
+      <c r="D51" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="9">
         <v>1</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C48" s="9" t="n">
+      <c r="D52" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="9">
         <v>2</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C49" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C50" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C51" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C52" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C53" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C54" s="9" t="n">
-        <v>2</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>245</v>
+        <v>199</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>327</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" s="16" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:64" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="11" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>13</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H55" s="17"/>
       <c r="I55" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
@@ -3601,108 +3839,108 @@
       <c r="BK55" s="17"/>
       <c r="BL55" s="17"/>
     </row>
-    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C56" s="9" t="n">
+        <v>201</v>
+      </c>
+      <c r="C56" s="9">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>250</v>
+        <v>199</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>328</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="9" t="n">
+        <v>204</v>
+      </c>
+      <c r="C57" s="9">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>254</v>
+        <v>199</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>329</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C58" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="C58" s="9">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>258</v>
+        <v>199</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>330</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C59" s="9" t="n">
+        <v>210</v>
+      </c>
+      <c r="C59" s="9">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>262</v>
+        <v>199</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>331</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -3760,134 +3998,134 @@
       <c r="BK59" s="10"/>
       <c r="BL59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C60" s="9" t="n">
+        <v>213</v>
+      </c>
+      <c r="C60" s="9">
         <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>266</v>
+        <v>199</v>
+      </c>
+      <c r="H60" s="40" t="s">
+        <v>332</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C61" s="9" t="n">
+        <v>216</v>
+      </c>
+      <c r="C61" s="9">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>270</v>
+        <v>151</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>333</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C62" s="9" t="n">
+        <v>219</v>
+      </c>
+      <c r="C62" s="9">
         <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>274</v>
+        <v>199</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>334</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C63" s="9" t="n">
+        <v>222</v>
+      </c>
+      <c r="C63" s="9">
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>278</v>
+        <v>199</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>335</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C64" s="9" t="n">
+        <v>225</v>
+      </c>
+      <c r="C64" s="9">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>283</v>
+        <v>228</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>336</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
@@ -3945,83 +4183,83 @@
       <c r="BK64" s="10"/>
       <c r="BL64" s="10"/>
     </row>
-    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C65" s="9" t="n">
+        <v>229</v>
+      </c>
+      <c r="C65" s="9">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>288</v>
+        <v>232</v>
+      </c>
+      <c r="H65" s="40" t="s">
+        <v>353</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C66" s="9" t="n">
+        <v>233</v>
+      </c>
+      <c r="C66" s="9">
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>293</v>
+        <v>236</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>337</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
         <v>66</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C67" s="20" t="n">
+        <v>237</v>
+      </c>
+      <c r="C67" s="20">
         <v>1</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>297</v>
+        <v>239</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>338</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J67" s="24"/>
       <c r="K67" s="24"/>
@@ -4079,31 +4317,31 @@
       <c r="BK67" s="24"/>
       <c r="BL67" s="24"/>
     </row>
-    <row r="68" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18" t="n">
+    <row r="68" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18">
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="C68" s="20" t="n">
+        <v>240</v>
+      </c>
+      <c r="C68" s="20">
         <v>1</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>302</v>
+        <v>243</v>
+      </c>
+      <c r="H68" s="41" t="s">
+        <v>339</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
@@ -4161,31 +4399,31 @@
       <c r="BK68" s="24"/>
       <c r="BL68" s="24"/>
     </row>
-    <row r="69" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18" t="n">
+    <row r="69" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="18">
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C69" s="20" t="n">
+        <v>244</v>
+      </c>
+      <c r="C69" s="20">
         <v>1</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="H69" s="22" t="s">
-        <v>305</v>
+        <v>192</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>340</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J69" s="24"/>
       <c r="K69" s="24"/>
@@ -4243,31 +4481,31 @@
       <c r="BK69" s="24"/>
       <c r="BL69" s="24"/>
     </row>
-    <row r="70" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18" t="n">
+    <row r="70" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18">
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="C70" s="20" t="n">
+        <v>246</v>
+      </c>
+      <c r="C70" s="20">
         <v>1</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="H70" s="22" t="s">
-        <v>310</v>
+        <v>249</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>341</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
@@ -4325,31 +4563,31 @@
       <c r="BK70" s="24"/>
       <c r="BL70" s="24"/>
     </row>
-    <row r="71" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18" t="n">
+    <row r="71" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18">
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="C71" s="20" t="n">
+        <v>250</v>
+      </c>
+      <c r="C71" s="20">
         <v>1</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>314</v>
+        <v>252</v>
+      </c>
+      <c r="H71" s="40" t="s">
+        <v>342</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J71" s="24"/>
       <c r="K71" s="24"/>
@@ -4407,33 +4645,33 @@
       <c r="BK71" s="24"/>
       <c r="BL71" s="24"/>
     </row>
-    <row r="72" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18" t="n">
+    <row r="72" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="18">
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="C72" s="20" t="n">
+        <v>253</v>
+      </c>
+      <c r="C72" s="20">
         <v>1</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>319</v>
+        <v>256</v>
+      </c>
+      <c r="H72" s="40" t="s">
+        <v>343</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J72" s="24"/>
       <c r="K72" s="24"/>
@@ -4491,31 +4729,31 @@
       <c r="BK72" s="24"/>
       <c r="BL72" s="24"/>
     </row>
-    <row r="73" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18" t="n">
+    <row r="73" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="18">
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C73" s="20" t="n">
+        <v>257</v>
+      </c>
+      <c r="C73" s="20">
         <v>1</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="H73" s="22" t="s">
-        <v>324</v>
+        <v>260</v>
+      </c>
+      <c r="H73" s="40" t="s">
+        <v>344</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J73" s="24"/>
       <c r="K73" s="24"/>
@@ -4573,31 +4811,31 @@
       <c r="BK73" s="24"/>
       <c r="BL73" s="24"/>
     </row>
-    <row r="74" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="18" t="n">
+    <row r="74" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="18">
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C74" s="20" t="n">
+        <v>261</v>
+      </c>
+      <c r="C74" s="20">
         <v>1</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="H74" s="22" t="s">
-        <v>329</v>
+        <v>264</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>345</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J74" s="24"/>
       <c r="K74" s="24"/>
@@ -4655,31 +4893,31 @@
       <c r="BK74" s="24"/>
       <c r="BL74" s="24"/>
     </row>
-    <row r="75" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="18" t="n">
+    <row r="75" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18">
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="C75" s="20" t="n">
+        <v>265</v>
+      </c>
+      <c r="C75" s="20">
         <v>1</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>332</v>
+        <v>267</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>334</v>
+        <v>268</v>
+      </c>
+      <c r="H75" s="41" t="s">
+        <v>346</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J75" s="24"/>
       <c r="K75" s="24"/>
@@ -4737,31 +4975,31 @@
       <c r="BK75" s="24"/>
       <c r="BL75" s="24"/>
     </row>
-    <row r="76" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="18" t="n">
+    <row r="76" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18">
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="C76" s="20" t="n">
+        <v>269</v>
+      </c>
+      <c r="C76" s="20">
         <v>1</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="F76" s="21"/>
       <c r="G76" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>339</v>
+        <v>272</v>
+      </c>
+      <c r="H76" s="40" t="s">
+        <v>347</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J76" s="22"/>
       <c r="K76" s="22"/>
@@ -4819,30 +5057,30 @@
       <c r="BK76" s="22"/>
       <c r="BL76" s="22"/>
     </row>
-    <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C77" s="9" t="n">
+        <v>273</v>
+      </c>
+      <c r="C77" s="9">
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>342</v>
+        <v>275</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>344</v>
+        <v>276</v>
+      </c>
+      <c r="H77" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
@@ -4900,11 +5138,11 @@
       <c r="BK77" s="10"/>
       <c r="BL77" s="10"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="26"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="28"/>
-      <c r="I78" s="29"/>
+    <row r="78" spans="1:64" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="25"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="27"/>
+      <c r="I78" s="28"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
@@ -4961,16 +5199,16 @@
       <c r="BK78" s="10"/>
       <c r="BL78" s="10"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="C79" s="0"/>
-      <c r="D79" s="0"/>
-      <c r="I79" s="29"/>
+    <row r="79" spans="1:64" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="I79" s="28"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
@@ -5027,16 +5265,16 @@
       <c r="BK79" s="10"/>
       <c r="BL79" s="10"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="31" t="s">
-        <v>347</v>
-      </c>
-      <c r="B80" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="C80" s="0"/>
-      <c r="D80" s="0"/>
-      <c r="I80" s="29"/>
+    <row r="80" spans="1:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="I80" s="28"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
@@ -5093,16 +5331,16 @@
       <c r="BK80" s="10"/>
       <c r="BL80" s="10"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="31" t="s">
-        <v>349</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="C81" s="0"/>
-      <c r="D81" s="0"/>
-      <c r="I81" s="29"/>
+    <row r="81" spans="1:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="I81" s="28"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -5159,16 +5397,16 @@
       <c r="BK81" s="10"/>
       <c r="BL81" s="10"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="B82" s="34" t="n">
-        <f aca="false">SUM(C2:C77)</f>
+    <row r="82" spans="1:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="B82" s="33">
+        <f>SUM(C2:C77)</f>
         <v>131</v>
       </c>
-      <c r="C82" s="28"/>
-      <c r="I82" s="29"/>
+      <c r="C82" s="27"/>
+      <c r="I82" s="28"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
@@ -5225,16 +5463,16 @@
       <c r="BK82" s="10"/>
       <c r="BL82" s="10"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="B83" s="34" t="n">
-        <f aca="false">COUNTIF(C2:C77, "&lt;&gt;")</f>
+    <row r="83" spans="1:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B83" s="33">
+        <f>COUNTIF(C2:C77, "&lt;&gt;")</f>
         <v>74</v>
       </c>
-      <c r="C83" s="28"/>
-      <c r="I83" s="29"/>
+      <c r="C83" s="27"/>
+      <c r="I83" s="28"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -5291,9 +5529,9 @@
       <c r="BK83" s="10"/>
       <c r="BL83" s="10"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="26"/>
-      <c r="I84" s="29"/>
+    <row r="84" spans="1:64" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="I84" s="28"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
@@ -5350,12 +5588,12 @@
       <c r="BK84" s="10"/>
       <c r="BL84" s="10"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="28" t="s">
-        <v>353</v>
+    <row r="85" spans="1:64" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="27" t="s">
+        <v>285</v>
       </c>
       <c r="B85" s="3"/>
-      <c r="I85" s="29"/>
+      <c r="I85" s="28"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
@@ -5412,147 +5650,144 @@
       <c r="BK85" s="10"/>
       <c r="BL85" s="10"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H86" s="10"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H87" s="10"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H88" s="10"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H89" s="10"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H90" s="10"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H91" s="10"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H92" s="10"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H93" s="10"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H94" s="10"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H95" s="10"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:64" x14ac:dyDescent="0.25">
       <c r="H96" s="10"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H97" s="10"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
-      <c r="B99" s="35"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="36"/>
-      <c r="B100" s="37"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="36"/>
-      <c r="B101" s="38"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="36"/>
-      <c r="B102" s="39"/>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="36"/>
-      <c r="B103" s="39"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B99" s="34"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="35"/>
+      <c r="B100" s="36"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="35"/>
+      <c r="B101" s="37"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="35"/>
+      <c r="B102" s="38"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="35"/>
+      <c r="B103" s="38"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="https://www.digikey.nl/short/zdc4q9"/>
-    <hyperlink ref="J2" r:id="rId2" display="https://www.richardsonrfpd.com/Products/Product/NN02-201"/>
-    <hyperlink ref="H3" r:id="rId3" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_22uF-226-20-6-3V_C109448.html"/>
-    <hyperlink ref="H4" r:id="rId4" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10A475KO8NNNC_4-7uF-475-10-16V_C19666.html"/>
-    <hyperlink ref="H5" r:id="rId5" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R7BB103_C327009.html"/>
-    <hyperlink ref="H6" r:id="rId6" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402JRNPO9BN470_C60137.html"/>
-    <hyperlink ref="H7" r:id="rId7" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R8BB473_C107020.html"/>
-    <hyperlink ref="H8" r:id="rId8" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402JRNPO9BN680_C107009.html"/>
-    <hyperlink ref="H9" r:id="rId9" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0603KRX7R7BB474_C106851.html"/>
-    <hyperlink ref="H10" r:id="rId10" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN2R7_C326937.html"/>
-    <hyperlink ref="H11" r:id="rId11" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Walsin-Tech-Corp-0402N3R6B500_C123485.html"/>
-    <hyperlink ref="H12" r:id="rId12" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402GRNPO9BN330_C325461.html"/>
-    <hyperlink ref="H13" r:id="rId13" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN5R6_C505468.html"/>
-    <hyperlink ref="H14" r:id="rId14" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN6R8_C327291.html"/>
-    <hyperlink ref="H15" r:id="rId15" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN2R4_C541334.html"/>
-    <hyperlink ref="H16" r:id="rId16" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN3R3_C327287.html"/>
-    <hyperlink ref="H17" r:id="rId17" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Taiyo-Yuden-JMK316ABJ107ML-T_C268006.html"/>
-    <hyperlink ref="H18" r:id="rId18" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN3R9_C505474.html"/>
-    <hyperlink ref="H19" r:id="rId19" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN1R3_C327229.html"/>
-    <hyperlink ref="H20" r:id="rId20" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R7BB102_C189467.html"/>
-    <hyperlink ref="H21" r:id="rId21" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402BRNPO9BN3R3_C327287.html"/>
-    <hyperlink ref="H22" r:id="rId22" display="https://lcsc.com/product-detail/Others_Taiyo-Yuden_JMK107ABJ106KA-T_Taiyo-Yuden-JMK107ABJ106KA-T_C319196.html"/>
-    <hyperlink ref="H23" r:id="rId23" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL05A105KQ5NNNC_C107372.html"/>
-    <hyperlink ref="H24" r:id="rId24" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R7BB104_C60474.html"/>
-    <hyperlink ref="H25" r:id="rId25" display="https://lcsc.com/product-detail/TVS_Nexperia-PESD5V0S1BA-115_C19224.html"/>
-    <hyperlink ref="H26" r:id="rId26" display="https://lcsc.com/product-detail/Switching-Diode_Diodes-Incorporated-1N4148WSF-7_C119617.html"/>
-    <hyperlink ref="H27" r:id="rId27" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Foshan-NationStar-Optoelectronics-FM-B2020RGBA-HG_C108793.html"/>
-    <hyperlink ref="H28" r:id="rId28" display="https://lcsc.com/product-detail/TVS_Leiditech-ESD9D5V_C384848.html"/>
-    <hyperlink ref="H29" r:id="rId29" display="https://lcsc.com/product-detail/PTC-Resettable-Fuses_Littelfuse-1210L150-16WR_C207048.html"/>
-    <hyperlink ref="H30" r:id="rId30" display="https://lcsc.com/product-detail/Ferrite-Beads_Murata-Electronics-BLM18AG601SN1D_C19330.html"/>
-    <hyperlink ref="H31" r:id="rId31" display="https://www.digikey.com/short/zwbq0r"/>
-    <hyperlink ref="H32" r:id="rId32" display="https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_JST-Sales-America-BM04B-SRSS-TB-LF-SN_C160390.html"/>
-    <hyperlink ref="H33" r:id="rId33" display="https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_JST-Sales-America-B2B-PH-SM4-TB-LF-SN_C160352.html"/>
-    <hyperlink ref="H34" r:id="rId34" display="https://www.digikey.com/short/zwbq0z"/>
-    <hyperlink ref="H35" r:id="rId35" display="https://lcsc.com/product-detail/RF-Connectors-Coaxial-Connectors_HRS-Hirose-U-FL-R-SMT-1-10_C88373.html"/>
-    <hyperlink ref="H36" r:id="rId36" display="https://www.aliexpress.com/item/622209657.html?spm=a2g0o.cart.0.0.5c1d3c00KRaXyV&amp;mp=1"/>
-    <hyperlink ref="H37" r:id="rId37" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_BOOMELE-Boom-Precision-Elec-1-27mm-1-2P_C703015.html"/>
-    <hyperlink ref="H38" r:id="rId38" display="https://lcsc.com/product-detail/Power-Inductors_TAI-TECH-HPC4012TF-2R2M_C357047.html"/>
-    <hyperlink ref="H39" r:id="rId39" display="https://lcsc.com/product-detail/Ferrite-Beads_Murata-Electronics-BLM15HG102SN1D_C76889.html"/>
-    <hyperlink ref="H40" r:id="rId40" display="https://www.digikey.com/short/zwbq90"/>
-    <hyperlink ref="H41" r:id="rId41" display="https://www.digikey.com/short/zwbq9f"/>
-    <hyperlink ref="H42" r:id="rId42" display="https://www.digikey.com/en/products/detail/LQW15AN27NG00D/490-6792-1-ND/3845989?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=usd&amp;utm_source=octopart"/>
-    <hyperlink ref="H43" r:id="rId43" display="https://www.digikey.com/en/products/detail/murata-electronics/LQW15AN6N5G80D/4905966?s=N4IgTCBcDaIDIEUDqBGArAQQHIDYtoHEAOABhAF0BfIA"/>
-    <hyperlink ref="H44" r:id="rId44" display="https://www.digikey.com/en/products/detail/murata-electronics/LQW15AN8N0G80D/4422141?s=N4IgTCBcDaIDIEUDqBGArAQQHIA4sAYBxHfEAXQF8g"/>
-    <hyperlink ref="H45" r:id="rId45" display="https://lcsc.com/product-detail/Inductors-SMD_Murata-Electronics-LQW15AN3N6C10D_C408158.html"/>
-    <hyperlink ref="H46" r:id="rId46" display="https://www.digikey.com/short/zwbqfq"/>
-    <hyperlink ref="H47" r:id="rId47" display="https://lcsc.com/product-detail/Inductors-SMD_Murata-Electronics-LQW15AN11NG00D_C113109.html"/>
-    <hyperlink ref="H48" r:id="rId48" display="https://www.digikey.com/short/zwbq55"/>
-    <hyperlink ref="H49" r:id="rId49" display="https://lcsc.com/product-detail/Inductors-SMD_Murata-Electronics-LQW15AN3N0B00D_C269824.html"/>
-    <hyperlink ref="H50" r:id="rId50" display="https://www.digikey.com/short/zwbq2m"/>
-    <hyperlink ref="H51" r:id="rId51" display="https://lcsc.com/product-detail/Buzzers_Jiangsu-Huaneng-Elec-MLT-7525_C95299.html"/>
-    <hyperlink ref="H52" r:id="rId52" display="https://lcsc.com/product-detail/MOSFET_Nexperia-PMV32UP-215_C282569.html"/>
-    <hyperlink ref="H53" r:id="rId53" display="https://lcsc.com/product-detail/Transistors-NPN-PNP_Nexperia-PMST4401-115_C454963.html"/>
-    <hyperlink ref="H54" r:id="rId54" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-AC0402JR-0710KL_C144731.html"/>
-    <hyperlink ref="H56" r:id="rId55" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_1KR-1001-1_C106235.html"/>
-    <hyperlink ref="H57" r:id="rId56" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-AC0402FR-074K7L_C174364.html"/>
-    <hyperlink ref="H58" r:id="rId57" display="https://lcsc.com/product-detail/_AC0402JR-0733RL_C144713.html"/>
-    <hyperlink ref="H59" r:id="rId58" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0402FR-07100KL_C60491.html"/>
-    <hyperlink ref="H60" r:id="rId59" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-AC0402FR-07330RL_C226996.html"/>
-    <hyperlink ref="H61" r:id="rId60" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0402FR-07220RL_C112291.html"/>
-    <hyperlink ref="H62" r:id="rId61" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0402FR-07100RL_C106232.html"/>
-    <hyperlink ref="H63" r:id="rId62" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0402FR-070RL_C106231.html"/>
-    <hyperlink ref="H64" r:id="rId63" display="https://lcsc.com/product-detail/Tactile-Switches_C-K-KSC721GLFS_C221764.html"/>
-    <hyperlink ref="H65" r:id="rId64" display="https://lcsc.com/product-detail/Tactile-Switches_ALPS-Electric-SKSHABE010_C255507.html"/>
-    <hyperlink ref="H66" r:id="rId65" display="https://www.ti.com/store/ti/en/p/product/?p=TPS22917DBVR"/>
-    <hyperlink ref="H67" r:id="rId66" display="https://lcsc.com/product-detail/Temperature-Humidity-Sensors_Sensirion-SHTC3_C194656.html"/>
-    <hyperlink ref="H68" r:id="rId67" display="https://www.microchipdirect.com/product/ATECC608A-TNGLORAU-C?productLoaded=true"/>
-    <hyperlink ref="H69" r:id="rId68" display="https://www.digikey.de/product-detail/en/TPS3839G18DBZT/296-39391-1-ND/5143342?itemSeq=363776395"/>
-    <hyperlink ref="H70" r:id="rId69" display="https://eu.mouser.com/ProductDetail/Ricoh-Electronic-Devices-Company/RP605Z283B-E2-F?qs=%2Fha2pyFadujfkekTwsRQpQaCcXRCnGubiPAekIe2V2q%252BPlq4yt9zFJnKPMHL8r%252Bf&amp;utm_source=octopart&amp;utm_medium=aggregator&amp;utm_campaign=848-RP605Z283B-E2-F&amp;utm_content=Ricoh+Electronics"/>
-    <hyperlink ref="H71" r:id="rId70" location="sample-buy" display="https://www.st.com/content/st_com/en/products/microcontrollers-microprocessors/stm32-32-bit-arm-cortex-mcus/stm32-wireless-mcus/stm32wl-series/stm32wlex/stm32wle5cc.html#sample-buy"/>
-    <hyperlink ref="H72" r:id="rId71" display="https://www.ti.com/store/ti/en/p/product/?p=TS3A5223RSWR"/>
-    <hyperlink ref="H74" r:id="rId72" display="https://www.digikey.com/short/zwbqjc"/>
-    <hyperlink ref="H75" r:id="rId73" display="https://lcsc.com/product-detail/Motion-Sensors-Accelerometers_STMicroelectronics-LIS2DH12TR_C110926.html"/>
-    <hyperlink ref="H76" r:id="rId74" display="https://www.digikey.de/product-detail/en/TG2520SMN+32.0000M-MCGNNM3/114-TG2520SMN32.0000M-MCGNNM3TR-ND/13151954?itemSeq=363783209 "/>
-    <hyperlink ref="H77" r:id="rId75" display="https://lcsc.com/product-detail/SMD-Crystal-Resonators_Seiko-Epson_X1A000061002100_Seiko-Epson-X1A000061002100_C255767.html"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H37" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H38" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H51" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H3" r:id="rId8" display="https://www.arrow.com/en/products/cc0603mrx5r5bb226/yageo?q=CC0603MRX5R5BB226" xr:uid="{AD9F7776-573B-4190-B2F0-DEEFFE95D5C7}"/>
+    <hyperlink ref="H4" r:id="rId9" display="https://www.arrow.com/en/products/cl10a475ko8nnnc/samsung-electro-mechanics?q=CL10A475KO8NNNC" xr:uid="{3E06DCDC-C924-431E-A5E3-88974FBAD43C}"/>
+    <hyperlink ref="H5" r:id="rId10" display="https://www.arrow.com/en/products/cc0402krx7r7bb103/yageo?q=CC0402KRX7R7BB103" xr:uid="{0215AEEB-AC94-4DDD-AF06-D1AA9F06CE04}"/>
+    <hyperlink ref="H6" r:id="rId11" display="https://www.arrow.com/en/products/cc0402jrnpo9bn470/yageo?q=CC0402JRNPO9BN470" xr:uid="{13850521-F446-4080-9D3E-D71AC81C1987}"/>
+    <hyperlink ref="H7" r:id="rId12" display="https://www.arrow.com/en/products/cc0402krx7r8bb473/yageo?q=CC0402KRX7R8BB473" xr:uid="{7732EF9F-9070-42CC-A3E1-36EB897D74F1}"/>
+    <hyperlink ref="H8" r:id="rId13" display="https://www.arrow.com/en/products/cc0402jrnpo9bn680/yageo?q=CC0402JRNPO9BN680" xr:uid="{9C6882EC-BC07-43DB-92C6-8C5A6BA0A823}"/>
+    <hyperlink ref="H9" r:id="rId14" display="https://www.arrow.com/en/products/cc0603krx7r7bb474/yageo?q=CC0603KRX7R7BB474" xr:uid="{97639CAD-7FCF-4808-B66F-207ED507B0EF}"/>
+    <hyperlink ref="H10" r:id="rId15" display="https://www.arrow.com/en/products/cc0402brnpo9bn2r7/yageo?q=CC0402BRNPO9BN2R7" xr:uid="{4ACAC90B-7AA2-4E0E-A8E6-F63D0F5E3C3C}"/>
+    <hyperlink ref="H2" r:id="rId16" xr:uid="{E2BB99D3-32FB-46F8-961C-9FD834973478}"/>
+    <hyperlink ref="H12" r:id="rId17" display="https://www.arrow.com/en/products/cc0402grnpo9bn330/yageo?q=CC0402GRNPO9BN330" xr:uid="{3CB744C1-D539-43E8-8133-3BBF71621CB9}"/>
+    <hyperlink ref="H13" r:id="rId18" display="https://www.arrow.com/en/products/cc0402brnpo9bn5r6/yageo?q=CC0402BRNPO9BN5R6" xr:uid="{713D09B9-3856-4EF4-A74B-788A4ADC5607}"/>
+    <hyperlink ref="H14" r:id="rId19" display="https://www.arrow.com/en/products/cc0402brnpo9bn6r8/yageo?q=CC0402BRNPO9BN6R8" xr:uid="{EE9C4EC7-8633-482D-B663-032DC92DC40E}"/>
+    <hyperlink ref="H15" r:id="rId20" display="https://www.arrow.com/en/products/cc0402brnpo9bn2r4/yageo?q=CC0402BRNPO9BN2R4" xr:uid="{CFE46E60-CDF9-47F9-BD41-4BD240A4CBE4}"/>
+    <hyperlink ref="H16" r:id="rId21" display="https://www.arrow.com/en/products/cc0402brnpo9bn3r3/yageo?q=CC0402BRNPO9BN3R3" xr:uid="{D79E0200-C987-4C97-958C-FF3A1EC5548B}"/>
+    <hyperlink ref="H18" r:id="rId22" display="https://www.arrow.com/en/products/cc0402brnpo9bn3r9/yageo?q=CC0402BRNPO9BN3R9" xr:uid="{BA346D7E-252C-4AC6-87C7-49C22427F24F}"/>
+    <hyperlink ref="H19" r:id="rId23" display="https://www.arrow.com/en/products/cc0402brnpo9bn1r3/yageo?q=CC0402BRNPO9BN1R3" xr:uid="{21EB0BA6-3676-42C7-9EE2-5D542E290070}"/>
+    <hyperlink ref="H20" r:id="rId24" display="https://www.arrow.com/en/products/cc0402krx7r7bb102/yageo?q=CC0402KRX7R7BB102" xr:uid="{9CF14927-BAA9-4CFD-9F1A-A775B35B6D15}"/>
+    <hyperlink ref="H21" r:id="rId25" display="https://www.arrow.com/en/products/cc0402brnpo9bn3r3/yageo?q=CC0402BRNPO9BN3R3" xr:uid="{77FE71AB-3868-4E70-8C16-A09BE1697EA9}"/>
+    <hyperlink ref="H23" r:id="rId26" display="https://www.arrow.com/en/products/cl05a105kq5nnnc/samsung-electro-mechanics?q=CL05A105KQ5NNNC" xr:uid="{65A335CA-11E3-4307-86FA-B3C6F50102B4}"/>
+    <hyperlink ref="H24" r:id="rId27" display="https://www.arrow.com/en/products/cc0402krx7r7bb104/yageo?q=CC0402KRX7R7BB104" xr:uid="{2C7552EB-A8BF-4318-8CA6-EAB5982AB1F6}"/>
+    <hyperlink ref="H25" r:id="rId28" display="https://www.arrow.com/en/products/pesd5v0s1ba115/nexperia?q=PESD5V0S1BA,115" xr:uid="{E5B32856-8238-456F-83A8-0E7897308203}"/>
+    <hyperlink ref="H26" r:id="rId29" display="https://www.arrow.com/en/products/1n4148wsf-7/diodes-incorporated?q=1N4148WSF-7" xr:uid="{3EC97F47-B9D0-443D-9206-48E9BEE88767}"/>
+    <hyperlink ref="H29" r:id="rId30" display="https://www.arrow.com/en/products/1210l15016wr/littelfuse?q=1210L150%2F16WR" xr:uid="{BAEDDBF5-62D8-48E4-BF7C-277F11913D4D}"/>
+    <hyperlink ref="H30" r:id="rId31" display="https://www.arrow.com/en/products/blm18ag601sn1d/murata-manufacturing?q=BLM18AG601SN1D" xr:uid="{85376078-4752-4BC6-A2E5-5262ADFC6F04}"/>
+    <hyperlink ref="H31" r:id="rId32" display="https://www.arrow.com/en/products/search?datasheets=true&amp;selectedType=product&amp;q=S1001-46R" xr:uid="{960B5748-2B08-44D2-9732-7942FA95B8F0}"/>
+    <hyperlink ref="H32" r:id="rId33" display="https://www.arrow.com/en/products/bm04b-srss-tb-lf-sn/jst-manufacturing" xr:uid="{5BF9E7E6-75A0-42E2-81FA-87946B6C9053}"/>
+    <hyperlink ref="H33" r:id="rId34" display="https://www.arrow.com/en/products/b2b-ph-sm4-tb-lf-sn/jst-manufacturing" xr:uid="{9A8919A3-0E76-47AE-B9AF-EAEA8DDEE93E}"/>
+    <hyperlink ref="H34" r:id="rId35" display="https://www.arrow.com/en/products/search?datasheets=true&amp;selectedType=product&amp;q=S02-30200250" xr:uid="{7837BC73-5DC8-49EE-A4AF-0B3848292972}"/>
+    <hyperlink ref="H39" r:id="rId36" display="https://www.arrow.com/en/products/blm15hg102sn1d/murata-manufacturing?q=BLM15HG102SN1D" xr:uid="{2833DF3C-8D08-40FE-B7B7-674162D49FA6}"/>
+    <hyperlink ref="H40" r:id="rId37" display="https://www.arrow.com/en/products/lqw15an6n8h00d/murata-manufacturing?q=LQW15AN6N8H00D" xr:uid="{01F6D6EA-8B8B-41BB-8DBC-11DD5F75477C}"/>
+    <hyperlink ref="H41" r:id="rId38" display="https://www.arrow.com/en/products/lqw15an8n7h00d/murata-manufacturing?q=LQW15AN8N7H00D" xr:uid="{9BB91537-84AC-4E1E-A813-130F5A6F961C}"/>
+    <hyperlink ref="H42" r:id="rId39" display="https://www.arrow.com/en/products/lqw15an27ng00d/murata-manufacturing" xr:uid="{24468694-C6BE-409B-B35A-CB80EEE50ECA}"/>
+    <hyperlink ref="H43" r:id="rId40" display="https://www.arrow.com/en/products/lqw15an6n5g80d/murata-manufacturing" xr:uid="{C7FD4573-4D05-4147-9855-2E8F46029FFD}"/>
+    <hyperlink ref="H44" r:id="rId41" display="https://www.arrow.com/en/products/lqw15an8n0g80d/murata-manufacturing" xr:uid="{7740F4A1-64CD-4190-82C7-C654CF74F3D2}"/>
+    <hyperlink ref="H45" r:id="rId42" display="https://www.arrow.com/en/products/lqw15an3n6c10d/murata-manufacturing?q=LQW15AN3N6C10D" xr:uid="{D5EF442B-6640-4837-9F36-E3B91978E881}"/>
+    <hyperlink ref="H46" r:id="rId43" display="https://www.arrow.com/en/products/mlz2012m150wt000/tdk?q=MLZ2012M150WT000" xr:uid="{6468A6FA-97DD-4D37-BDAE-DE79C5EE0A33}"/>
+    <hyperlink ref="H47" r:id="rId44" display="https://www.arrow.com/en/products/lqw15an11ng00d/murata-manufacturing?q=LQW15AN11NG00D" xr:uid="{A1CE2CAC-4551-4EA1-A25B-7351B670A31A}"/>
+    <hyperlink ref="H48" r:id="rId45" display="https://www.arrow.com/en/products/lqw15an47nj00d/murata-manufacturing?q=LQW15AN47NJ00D" xr:uid="{CFD7ED63-3AB7-4757-981A-A776F42BB13E}"/>
+    <hyperlink ref="H49" r:id="rId46" display="https://www.arrow.com/en/products/lqw15an3n0b00d/murata-manufacturing" xr:uid="{D7466908-9861-4CEC-9077-DBCAA62EFA28}"/>
+    <hyperlink ref="H50" r:id="rId47" display="https://www.arrow.com/en/products/lqw15an3n3c80d/murata-manufacturing?q=LQW15AN3N3C80D" xr:uid="{D51A4D13-9826-46DF-8903-E9E5F1AF087F}"/>
+    <hyperlink ref="H52" r:id="rId48" display="https://www.arrow.com/en/products/pmv32up215/nexperia?q=PMV32UP,215" xr:uid="{924AD64E-8858-4175-ADA6-5A014C716225}"/>
+    <hyperlink ref="H53" r:id="rId49" display="https://www.arrow.com/en/products/pmst4401115/nexperia?q=PMST4401,115" xr:uid="{5E5BD1B8-1C8E-4263-BA71-B9C7B3CF00D6}"/>
+    <hyperlink ref="H54" r:id="rId50" display="https://www.arrow.com/en/products/ac0402jr-0710kl/yageo?q=AC0402JR-0710KL" xr:uid="{7117F5CE-494E-4B81-BBDB-53482469AD92}"/>
+    <hyperlink ref="H56" r:id="rId51" display="https://www.arrow.com/en/products/rc0402fr-071kl/yageo" xr:uid="{2A35E395-DFFC-4B80-AE52-B2F535FBD950}"/>
+    <hyperlink ref="H57" r:id="rId52" display="https://www.arrow.com/en/products/ac0402fr-074k7l/yageo?q=AC0402FR-074K7L" xr:uid="{5A045140-4AD0-44B8-800B-DAAECA55C5A2}"/>
+    <hyperlink ref="H58" r:id="rId53" display="https://www.arrow.com/en/products/ac0402jr-0733rl/yageo?q=AC0402JR-0733RL" xr:uid="{9069203F-EA4B-4AFE-9402-60D103A03BF7}"/>
+    <hyperlink ref="H59" r:id="rId54" display="https://www.arrow.com/en/products/rc0402fr-07100kl/yageo" xr:uid="{30E14A8F-FF7B-4CAC-8D5B-AA20AABEA67C}"/>
+    <hyperlink ref="H60" r:id="rId55" display="https://www.arrow.com/en/products/ac0402fr-07330rl/yageo?q=AC0402FR-07330RL" xr:uid="{CC30741E-2C2E-4463-ACFF-A0128CDE7138}"/>
+    <hyperlink ref="H61" r:id="rId56" display="https://www.arrow.com/en/products/rc0402fr-07220rl/yageo" xr:uid="{1648AB51-5281-44C9-A922-74A2C944D836}"/>
+    <hyperlink ref="H62" r:id="rId57" display="https://www.arrow.com/en/products/rc0402fr-07100rl/yageo" xr:uid="{2664B92A-6374-4AFF-8C2A-D427C4276529}"/>
+    <hyperlink ref="H63" r:id="rId58" display="https://www.arrow.com/en/products/rc0402fr-070rl/yageo?q=RC0402FR-070RL" xr:uid="{291C5B60-6332-4D4A-B221-C78CBD292943}"/>
+    <hyperlink ref="H64" r:id="rId59" display="https://www.arrow.com/en/products/ksc721glfsb/ck" xr:uid="{5E0ACB59-A6AB-4038-9CBF-BE504E2E869E}"/>
+    <hyperlink ref="H66" r:id="rId60" display="https://www.arrow.com/en/products/tps22917dbvr/texas-instruments?q=TPS22917DBVR" xr:uid="{53FBA28B-23F5-4F1F-B53B-0C034C79E68E}"/>
+    <hyperlink ref="H67" r:id="rId61" display="https://www.arrow.com/en/products/shtc3-tr-10ks/sensirion-ag" xr:uid="{97A309E3-C4BB-4E20-8A3D-E8BC39F98D0E}"/>
+    <hyperlink ref="H68" r:id="rId62" display="https://www.arrow.com/en/products/atecc608b-tnglorau-g/microchip-technology" xr:uid="{7865FFEE-3B5C-48F7-AC16-F774B04DAA20}"/>
+    <hyperlink ref="H69" r:id="rId63" display="https://www.arrow.com/en/products/tps3839g18dbzt/texas-instruments" xr:uid="{D8A694CB-6F47-4233-A940-544A1B2092DB}"/>
+    <hyperlink ref="H70" r:id="rId64" display="https://www.arrow.com/en/products/rp605z283b-e2-f/nisshinbo-micro-devices-inc" xr:uid="{4A5615BD-1D18-4628-A031-21CD156663F8}"/>
+    <hyperlink ref="H71" r:id="rId65" display="https://www.arrow.com/en/products/stm32wl55ccu6/stmicroelectronics?q=STM32WL55CCU6" xr:uid="{EB0D197C-C7B8-4945-808E-FF3434DB8920}"/>
+    <hyperlink ref="H72" r:id="rId66" display="https://www.arrow.com/en/products/ts3a5223rswr/texas-instruments?q=TS3A5223RSWR" xr:uid="{34F175E4-9ACD-4F52-A788-348826A1A299}"/>
+    <hyperlink ref="H73" r:id="rId67" display="https://www.arrow.com/en/products/bgs13s4n9e6327xtsa1/infineon-technologies-ag?q=BGS13S4N9E6327XTSA1" xr:uid="{E8C150DA-A7E0-42B9-ABB7-CAF7F6281198}"/>
+    <hyperlink ref="H74" r:id="rId68" display="https://www.arrow.com/en/products/mx25r1635fzuil0tr/macronix-international" xr:uid="{1843C9C4-3355-486F-A38F-EEE070D1803A}"/>
+    <hyperlink ref="H75" r:id="rId69" display="https://www.arrow.com/en/products/lis2dh12tr/stmicroelectronics" xr:uid="{0B93B16D-DD99-41B6-B667-3F4339B1FB93}"/>
+    <hyperlink ref="H76" r:id="rId70" display="https://www.arrow.com/en/products/tg2520smn-32.0000m-mcgnnm3/epson-electronics-america" xr:uid="{5B49EC5D-B4BC-461A-A384-E0726763DE7D}"/>
+    <hyperlink ref="H77" r:id="rId71" xr:uid="{25A8535A-F23C-40D7-9A58-7DC70BCED473}"/>
+    <hyperlink ref="H11" r:id="rId72" display="https://www.arrow.com/en/products/0402n3r6b500ct/walsin-technology" xr:uid="{CFC9B8AF-6D4A-4800-82E5-8335BF1C15F3}"/>
+    <hyperlink ref="H17" r:id="rId73" display="https://www.arrow.com/en/products/jmk316abj107ml-t/taiyo-yuden?q=JMK316ABJ107ML-T" xr:uid="{42252F27-6B6C-4E32-A4A8-1B7EB35AE0A6}"/>
+    <hyperlink ref="H22" r:id="rId74" display="https://www.arrow.com/en/products/jmk107abj106ka-t/taiyo-yuden?q=JMK107ABJ106KA-T" xr:uid="{854EA69F-E2D9-4445-A2B5-DC04563CB380}"/>
+    <hyperlink ref="H35" r:id="rId75" display="https://www.verical.com/pd/hirose-electric-rf-connector-u.fl-r-smt-1%2810%29-457314" xr:uid="{C2CE3E77-2673-4E70-87C8-C6FB9237E9C4}"/>
+    <hyperlink ref="H65" r:id="rId76" display="https://www.arrow.com/en/products/skshabe010/alps-electric?q=SKSHABE010" xr:uid="{96000B05-6E4D-4E10-9166-ADB4E7D87137}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
